--- a/news_data/2019_03.xlsx
+++ b/news_data/2019_03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,66 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>효리의단골집 ‘이조은식당’ 제주도 중문 관광단지 맛집 中 갈치조림 후기 1...</t>
+  </si>
+  <si>
+    <t>베트남-제주도 문화관광교류 활성화 간담회 열려</t>
+  </si>
+  <si>
+    <t>제주에 '공정관광' 꽃 필까…제주도의회, 조례 제정 추진</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제주관광 블로그기자단 위촉식</t>
+  </si>
+  <si>
+    <t>효리의단골집 봄이 찾아온 제주도 중문 관광단지 맛집 '이조은식당' 가성비 좋...</t>
+  </si>
+  <si>
+    <t>제주도·제주관광공사, 인도네시아 밀레니얼 대상 홍보 팸투어 추진</t>
+  </si>
+  <si>
+    <t>군위군 고지바위권역 장군마을, 제주도 선진 체험관광지 견학</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 수학여행단 등 유치 홍보 마케팅 지원 강화</t>
+  </si>
+  <si>
+    <t>제주도 서귀포시 맛집 만복밀면, 주변 관광지로 중문관광단지와 탄산온천 등 ...</t>
+  </si>
+  <si>
+    <t>제주도관광협회 사랑나눔봉사단, 후원금 200만원 기탁</t>
+  </si>
+  <si>
+    <t>제주도, 전통포구 복원해 관광자원으로 활용</t>
+  </si>
+  <si>
+    <t>제주도·제주관광공사 비짓제주, 봄 여행 이벤트 진행</t>
+  </si>
+  <si>
+    <t>제주도, 지역자원 활용한 관광활성화 시책 시동</t>
+  </si>
+  <si>
+    <t>제주도-제주관광공사, 2019년 제주출발 크루즈상품 홍보 지원</t>
+  </si>
+  <si>
+    <t>효리의단골집 제주도 중문 관광단지 맛집 줄서서 먹는 갈치조림 ‘이조은식당...</t>
+  </si>
+  <si>
+    <t>제주도, 관광수용태세 혁신 담은 관광진흥계획 발표</t>
+  </si>
+  <si>
+    <t>제주도관광협회 사랑나눔봉사단, 광역푸드뱅크에 후원금 기탁</t>
+  </si>
+  <si>
+    <t>봄 만끽하는 제주도, 중문 관광단지 맛집 '국수바다본점'에서 제주의 맛 즐긴...</t>
+  </si>
+  <si>
+    <t>'미세먼지' 마스크 쓰고 관광하는 제주도</t>
+  </si>
+  <si>
+    <t>[제주도 첫 영리병원 허가 취소] 첫 발도 못뗀 녹지병원···제주의료관광단...</t>
+  </si>
+  <si>
     <t>효리의단골집 제주도 중문 관광단지 맛집 ‘이조은식당’ 제주 은갈치를 오롯...</t>
   </si>
   <si>
@@ -52,34 +112,91 @@
     <t>3월 제주도 관광 추천 명소 '새별오름 제주 들불축제' 맛집! 제주음식 별미한...</t>
   </si>
   <si>
-    <t>효리의단골집 제주도 중문 관광단지 맛집 ‘이조은식당’ 제주 은갈치를 오롯이 즐길 갈치정식 인기 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-03 오후 09:59:17 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
-  </si>
-  <si>
-    <t>제주도, 지역주민 주도 ‘지역관광 활성화’ 사업 본격 추진-국민일보 시사 시사 &gt; 전체기사 제주도, 지역주민 주도 ‘지역관광 활성화’ 사업 본격 추진 마을자원 활용한 콘텐츠 개발·다양화, 지역소득 향상 기대 입력 : 2019-03-07 15:21 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 지난해 제주 한남리에서 진행된 에코파티 모습(제주도 제공)제주도가 지역주민이 주도하는 ‘지역관광 활성화’ 사업을 본격적으로 추진한다.제주도는 지역의 문화·역사 등 지역특성과 향토자원을 활용한 융·복합 콘텐츠를 다양화하기 위해 농촌마을 위주로 추진돼 온 휴양 체험형 관광상품을 어촌마을까지 확대해 시행한다고 7일 밝혔다.도는 또 에코파티를 지속적으로 육성해 마을 생산상품(약초·도토리칼국수·개복숭아청·감입차·비자오일 등)에 대한 연계 지원을 강화할 계획이다.2016년 시작된 에코파티는 관광객들을 제주 곳곳의 마을로 초대해 자연·생태·문화·로컬푸드·주민해설 등 색다른 여행경험을 체험하게 하는 농어촌체험 여행 프로그램이다.도는 이와함께 마을 관광을 선도할 전문가 양성을 위해 지역관광 스토리텔러(30명) 및 지역여행기획가(30명) 양성과정도 마련한다.이밖에 주민주도형 관광상품 운영을 통해 마을소득 향상에 기여하고, 관광시장 변화에 부응하는 지역 관광여건을 조성하기 위해 국제포럼, 전문가 토론회, 홍보캠페인 등도 전개한다.현재 도(22개)와 관광공사(9개), 관광협회(1개) 등 유관기관으로 분산돼 산발적으로 추진되는 총 32개 사업들 역시 도 관광국 중심으로 재편할 방침이다.양기철 도 관광국장은 “마을자원을 활용한 관광상품 발굴에 주력해 관광소득이 지역주민들에게 연결되는 선순환 구조를 만들어 나가겠다”며 “올해 우수관광 벤처기업을 10개로 확대·육성해 관광비즈니스 모델 발굴, 후속지원 등을 통한 안정적인 관광산업 생태계 조성에 힘쓰겠다”고 말했다.제주=주미령 기자 lalijoo@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 ‘채널A 기자 명예훼손 혐의’ 최강욱 1심 무죄 조종수 김건희, 칼 든 검사들…고교생이 그린 ‘윤석열차’ 이재명, 尹 겨냥 “지금 휘두른 칼날, 스스로에게 되돌아갈 것” 직원 폭행에 내연녀 심부름까지…회장님의 ‘갑질’ 의혹 “도와야겠어”…생방중 이재민에 뛰어간 카메라맨 [영상] 尹, 감사원 文조사 논란에 “대통령 언급 부적절” “날 해치려고?” 칼부림… 마약 하면 누구든 ‘괴물’ 돌변 한밤중 횡단보도서 택시에 치인 여중생…보름만에 숨져 “서울-평양 올림픽 제안서 보니…北 인프라 구축 22조” 한밤중 횡단보도서 택시에 치인 여중생…보름만에 숨져 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 [속보] ‘채널A 기자 명예훼손 혐의’ 최강욱 1심 무죄 ‘김치용 배추’ 구글 번역기 돌리니 ‘Chinese cabbage’ 日 22세 거포 무라카미, 56호 홈런으로 신기록 썼다 주호영 “文, 왜 과민반응인지 모르겠다…조사 응해야” 경기도 ‘면접수당’ 문화 확산…지급 인증 기업 모집 임윤찬의 베토벤 ‘황제’ 실황 앨범 11월 발매 이재명, 尹 겨냥 “지금 휘두른 칼날, 스스로에게 되돌아갈 것” 광주의 10월 가을축제 향연…세계 최대 거리공연 첫선 [단독] 文정부 ‘최초 5G 상용화’ 180조원 홍보…과기부 “경제효과 측정 불가” 이재명, 감사원 文 조사에 “‘공포정치’ 尹정부에 강력 경고” 尹대통령, 北미사일에 “NSC 개최”…감사원 조사엔 “일반적 원칙” 완도수목원서 숲속음악회…‘가을산책 문화행사’ 풍성 尹 “북한 4000㎞ 미사일 발사…핵도발, 결연한 대응 직면할 것” 하나투어·질병관리청, ‘SAFETY CODE’ 공동 캠페인 대구경찰 텔레그램 가상자산 마약유통·투약 53명 입건</t>
-  </si>
-  <si>
-    <t>“제주도, 외국인 관광객 인지도 상승” - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:30 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 “제주도, 외국인 관광객 인지도 상승” 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 “제주도, 외국인 관광객 인지도 상승” 문유미 기자 승인 2019.03.20 17:12 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주도에 대한 외국인 관광객들의 인지도가 상승한 것으로 나타났다. 문화체육관광부와 한국관광공사가 20일 발표한 ‘2018 한국관광 브랜드 마케팅 커뮤니케이션 효과조사’에 따르면 외국인 1만2000명을 대상으로 설문조사 실시 결과 지난해 한국관광 인지도는 57.9%로 전년 대비 1.4%p 상승했다. 한국관광에 대한 선호도 역시 59.5%로 전년 대비 1.2%p 오르며 인지도·선호도 모두 5년 연속으로 상승했다. 특히 한국을 관광목적지로 떠올릴 때 생각나는 지역으로 제주를 선택한 비율이 31.5%로 전년보다 6.4%p 상승하며 전국 3위를 차지했다. 반면 1·2위를 차지하고 있는 서울·부산을 선택한 비율은 각각 61.4%, 34.3%로 전년 대비 각각 6.0%p, 1.6%p 줄어들었다. 문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도, 매경골프엑스포 참가 골프관광객 유치활동 전개 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 [급등주]에이디테크놀로지 주가 상승, 반도체 대전서 ADP 로드맵 선보인다 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' 2022-10-04 10:14 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 매경골프엑스포 참가 골프관광객 유치활동 전개 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 매경골프엑스포 참가 골프관광객 유치활동 전개 기자명 고병수 기자 입력 2019.03.08 11:48 수정 2019.03.08 13:06 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 도내 골프장 6개 업체 공동 홍보마케팅 펼쳐 (제주=국제뉴스) 고병수 기자 = 제주도와 제주도관광협회는 7일부터 10일까지 4일간 서울 코엑스에서 개최되는 매경골프엑스포에 참가하여 제주골프 홍보관을 운영하고 있다고 8일 밝혔다.개별소비세 감면 제도의 폐지로 주춤하고 있는 도내 골프 업계의 상황을 타개하기 위해 우리들CC, 캐슬렉스CC, 제주CC, 오라CC, 라온GC, 및 롯데스카이힐CC 등 6개 골프장에서 직접 참여하여 특가 골프상품 및 회원권 판매 등 공격적인 현장마케팅을 펼치고 있다.더불어 홍보관을 찾은 관람객을 대상으로 소확행, 먹방, 체험 등 최신 트렌드에 맞는 제주여행 정보를 제공하고 제주여행 종합쇼핑몰 및 제주시티투어 홍보를 통해 제주여행 방법에 대한 선택의 폭을 넓히고 있다. 관계자는 "앞으로 제주도와 제주도관광협회는 2019 내나라여행박람회, K-Festival 2019 등 대형 박람회 및 이벤트에 참가해 내국인 관광객 유치 확대를 위한 지속적인 홍보마케팅을 펼칠 예정"이라고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 요양병원 접촉면회 4일부터 가능 '입소자 외박·외출도' 최신뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 포토뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>효리의단골집 제주도 중문 관광단지 맛집 ‘이조은식당’ 줄서서먹는 서귀포 갈치조림 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-03 오후 09:59:17 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
-  </si>
-  <si>
-    <t>효리네민박맛집 ‘그때그집 애월본점’, 관광객들이 찾는 제주도2박3일코스로 알려져 로그인 회원가입 UP2030 창업리그 일자리카페 청년리포트 스페셜 리포트 기업과 경제 산업 일반경제 거시경제 은행 보험 카드 서민 증권 건설·에너지 제약·바이오 생활경제 오피니언 전문가 칼럼 데스크 칼럼 기자수첩 사설 전국 네트워크 메트로 인천 수도권 충청 영남 호남 제주 뉴스 정치사회 글로벌 문화 연예 스포츠 AT미디어센터 포럼&amp;컨퍼런스 PDF 보기 2022년 10월 04일 Tuesday 로그인 ㅣ 회원가입 UP2030 창업리그 일자리 카페 청년 리포트 스페셜 리포트 기업과 경제 산업 일반경제 거시경제 은행 보험 카드 서민 증권 건설·에너지 제약·바이오 생활경제 오피니언 전문가 칼럼 데스크 칼럼 기자수첩 사설 전국 네트워크 메트로 인천 수도권 충청 영남 호남 제주 AT미디어센터 뉴스 정치사회 글로벌 문화 연예 스포츠 포럼&amp;컨퍼런스 PDF 지면보기 기사제보 공지.사고 UP2030 스페셜 리포트 기업과 경제 오피니언 전국네트워크 포럼&amp;컨퍼런스 PDF보기 AT미디어센터 포럼&amp;컨퍼런스 PDF보기 효리네민박맛집 ‘그때그집 애월본점’, 관광객들이 찾는 제주도2박3일코스로 알려져 이하나 입력 2019-03-07 11:48 수정 2019-03-06 11:48 (사진제공=그때그집 애월본점) [아시아타임즈=이하나 기자] 우리나라 최남단 최대의 섬 제주도는 다양한 볼거리와 액티비티, 먹거리로 유명한 대표적인 힐링 관광지로, 가족, 친구, 연인 등 다양한 단위의 관광객들이 방문하는 곳이다. 제주도는 좋은 추억을 만들 수 있는 제주도핫플레이스를 도처에서 찾아볼 수 있으며, 이국적이며 아름다운 해수욕장과 해변, 드라이브코스 등 다양한 관광지도 체험할 수 있다. 또한, 제주도는 다양한 특산 음식들이 맛볼 수 있는 관광지로도 유명한데, 제주도에서 꼭 먹어봐야 할 음식으로 제주 흑돼지가 있다. 이러한 흑돼지를 잘 하는 애월맛집으로 알려진 애월 그때그집은 관광객뿐만 아니라 많은 제주 현지인들의 맛집으로 여러 매체에 소개되고 있는 곳이다. ‘애월 그때그집’에서 판매하고 있는 흑돼지는 일반 돼지에 비해 깊은 풍미와 더불어 지방의 두께가 얇아 부드럽고 고소한 맛이 일품이다. 두툼하게 손질한 흑돼지를 그대로 초벌구이해 손님상에서 2차로 구워 제공하고 있다. 각종 SNS에 효리네민박맛집으로 소개된 바 있는 ‘애월 그때그집’에서는 제주 흑돼지 오겹살과, 목살을 흑돼지세트로 즐길 수 있고 200g의 단품메뉴로도 즐길 수 있다. 흑돼지세트는 2-3명이 먹기 적당한 양으로 제공되며, 주문 시 흑돼지김치찌개와 수제소시지, 왕새우가 함께 준비되어 푸짐한 제주도 만찬을 맛볼 수 있다. 또한, 점심시간에만 한정적으로 맛볼 수 있는 그때그집의 시그니처 메뉴인 흑돼지 김치찌개전골쌈은 합리적인 가격으로 즐길 수 있다. 양푼 냄비에 뽀얀 육수와 함께 두툼한 흑돼지, 팽이버섯, 새송이버섯, 두부, 떡국떡, 묵은김치 등이 푸짐하다. 메뉴를 주문하면 계란후라이와 라면사리, 공기밥까지 무한리필로 제공되기 때문에 가성비 높은 든든한 한 끼 식사를 할 수 있다. '애월그때그집' 관계자는 "제주도 흑돼지 맛을 제대로 보여드리기 위해 신선한 흑돼지고기를 매일 선별해 손질하고 있다. 지방질이 고루 분포되어 이어 씹을수록 고소하고 담백해 효리네민박맛집으로도 여러 매체에 소개된 바 있는 제주 흑돼지를 우리 제주도핫플레이스 '애월그때그집'에서 마음껏 만끽하시길 바란다"고 전했다. 제주시 애월읍에 위치한 애월 그때그집은 ‘도두 그때그집’과 함께 운영되고 있다. 이하나 편집국 다른기사 보기 asiatime@asiatime.co.kr [저작권자ⓒ 아시아타임즈. 무단전재-재배포 금지] - 띄어 쓰기를 포함하여 250자 이내로 써주세요. - 건전한 토론문화를 위해, 타인에게 불쾌감을 주는 욕설/비방/허위/명예훼손/도배 등의 댓글은 표시가 제한됩니다. 0 /250 등록 중요기사 [단독] 이스타항공, 고용안정 강조하더니⋯육아휴직자, 복직에 ‘해고’칼날 국제유가, OPEC+ 대규모 감산 가능성에 상승…WTI 5.2% ↑ 경계 허문 '보더리스 패션' 열풍…영역 넓힌다 벤츠 타는 곽재선 KG그룹 회장, 쌍용차로 '확' 바꿀까 "가격 폭등에 IRA 후폭풍까지"…K배터리, 리튬 찾아 지구 한 바퀴 손흥민 내세운 '메가커피'•정해인 발탁한 '컴포즈커피'…저가커피 공세 [단독] 이스타항공, 고용안정 강조하더니⋯육아휴직자, 복직에 ‘해고’칼날 이스타항공 육아휴직자들, 복직 신청하니 돌아온 건 해고 통지서 해고도 서러운데 회사, 자진퇴사로 고용당국 보고⋯항의하니 수정 이스타항공 "2년 전 해고대상자는 육휴 후 퇴사 처리돼야"⋯노무사는 "문제 있어" [아시아타임즈=김영봉 기자] 지난 2020년 10월 이스타항공에는 대규모 정리해고의 칼바람이 불었었죠. 당시 해고 대상자로 통보받았다가 육아휴직(육휴)으로 해고의 칼날을 피한 직원들도 있었는데요. 그런데 해고는 끝난 것이 아니었습니다. 이스타항공의 주인이 성정으로 바뀌고 2년이 지난 시점, 육휴 중 복직을 신청한 직원들에게 곧바로 해고를 통보한 것으로 드러났습니다. 더욱 황당한 것은 이스타항공이 육휴 후 복직 신청을 한 직원들에게 정리해고를 통보해 놓고 고용당국에는 ‘자진퇴사’로보고했다는 점입니다. 해고된 직원이 실업급여와 육휴 사후지급금이라도 받기위해 고용당국에 전화하는 과정에서 밝혀진 것인데요. 해고된 직원이 항의하자 그제 서야 회사는 실수였다며 ‘비자발적 퇴사’로 바꿨습니다. 이스타항공은 육휴 했더라도 2년 전의 해고 대상자는 아직 해고가 유효하다는 입장입니다. 그러나 회사가 지난 7월 3일 입장문을 통해 새로운 항공사로서 재직자의 ‘고용안정’을 강조한 것과는 다른 모습이라 논란이 될 것으로 보입니다. 지워지지 않은 해고명부 아시아타임즈는 지난 29일 경기도 일산 한 카페에서 육휴 중 복직신청을 했다가 해고된 이스타항공 운항승무원 A씨와 B씨를 만나 이야기를 들었습니다. 이들은 지난 2020년 10월 해고대상자에서 포함됐다가 육휴를 신청해 해고를 피할 수 있었는데요 . 남녀고용평등법 상 육휴자는 해고할 수 없다는 규정 덕분이었습니다. 그러나 2년이 지난 현재, 새로운 회사가 됐다던 이스타항공은 7월 말 육휴 중 복직을 신청한 승무원들에게 복직도 하기전에 해고를 통보했습니다. A씨의 경우 7월27일 조기 복직 신청(8월29일 복직 희망)을 냈고, 이틀 후(29일) 회사는 기다렸다는 듯 ‘해고일정 변경통지서’를 보낸 것입니다. B씨 역시 7월 말 복직 신청서를 내고, 8월3일 회사로부터 해고 통지서를 받았습니다. A씨 통지서에는 “귀하는 2020년 10월14일자로 회사의 경영상 이유에 의해 해고대상자에 해당 됐으나, 당시 육휴 사용으로 인해 기 통보된 해고 일자가 육아휴직 종료시점 이후인 2022년 8월 29일자로 변경됨을 알려드립니다”고 돼있었습니다. B씨 역시 내용은 같습니다. 육휴자들 “참담, 회생 종료되고 긴박한 경영 문제 사라졌는데...”…자진퇴사 보고 논란도 A씨와 B씨는 회사의 정리해고에 대해 어느 정도 인지하고 있었다면서도 부당하다고 토로했습니다. 당시 경영상 어려움과 지금은 달라졌고, 이스타항공이 올해 3월 회생절차에서 졸업하고 주인이 완전히 바뀌면서 긴박한 경영상 어려움은 해소돼 현재 해고를 실행할 이유가 없다는 주장입니다. A씨는 "참담한 심정이다. 회생종료가 됨으로써 긴박한 경영상의 이유가 사라졌기 때문에 조기복직을 신청한 것”이라며 “우리는 복직원을 제출했지 퇴직원을 내지 않았다”고 하소연했습니다. A씨는 8월29일 해고가 된 후 더욱 황당한 일을 겪었다고 성토했습니다. 그는 “회사가 복직과 동시에 자른다고 하니, 실업급여라도 신청할 수밖에 없었다”며 “그런데 고용당국에 연락했더니, 4대보험 상실신고가 ‘자진퇴사’로 되어 있었다는사실을 알게 됐고, 실업급여와 육아휴직 사후지급금을 받지 못한다는 말을 들었다”고 설명했습니다. 이어 “알고 보니 회사가 자진퇴사로 보고한 것”이라며 “회사에 항의한 끝에 실수라는 사과와 함게 비자발적 퇴사로 수정했는데, 정리해고를 당한 것도 힘든데 (회사가)두번 죽이는 구나하는 생각까지 들었다”고 토로했습니다. B씨는 복직원을 내고 해고통지서가 날아오자 “올 것이 왔구나하는 생각이 들었다” 고 말문을 열었습니다. 그는 “한 번 해고 통보를 받은 상태였다가 우여곡절 끝에 육아휴직이 됐는데, 다시 해고 통지서를 받으니 착잡하다”며 “회사의 긴박한 경영상황은 회생졸업으로 사라지지 않았냐”고 재차 강조했습니다. 이스타항공 “2년전 해고대상자, 퇴사 처리는 당연” vs 노무사 “문제 있어” 이스타항공은 육휴자는 2년 전 정리해고 대상자라며 해고는 당연하다고 주장합니다. 이들이 해고되지 않으면 당시 해고됐던 605명과 형평성이 맞지 않다는 식의 논리입니다. 이스타항공 측은 기자와 연락을 통해 “2년 전 정리해고 통보를 받은 후 육휴를 사용한 경우 종료후 퇴사 처리가 돼야 한다”면서 “육휴 중에는 절차가 진행될 수 없기 때문”이라고 말했습니다. 이어 “(육휴자의 경우) 퇴직금 수령을 위해 조기 복직 후 절차가 진행된 경우가 있다"며 "정상화 이후 공정한 절차로 퇴직자를 우선채용할 것”이라고 덧붙였습니다. 참고로 대량해고 후 지방노동위원회는 이들 육아휴직자에 대해 남녀고용평등법에 의해 해고할 수 없다는 판결을 내린바 있습니다. 그럼 노동전문가는 이에 대해 어떻게 생각할까요? 기자는 두 명의 노무사로부터 이스타항공의 육휴자 해고에 대해 문제가 있다는 답변을 받았습니다. 특히 직장갑질 119 최혜인 노무사는 “2020년 경영 상태와 지금이 다를 수 있기 때문에 그 당시 해고 대상자였다고 해서 지금 정리해고 대상자로 선정한다는 것은 문제가 있다”며 “근로기준법상 정리해고 요건이 있고, 또 해고는 합리적 근거를 가지고 대상자를 선정해야 하다"고 지적했습니다. 이어 "해당 회사가 그런 기준을 수립하지 않고 2년 전 대상자니까 해고를 단행한다는 것은 해고 대상자 선정의 합리성이 결여된 것으로 보여진다"고 말했습니다. 한편 이스타항공은 지난 7월3일 입장문을 통해 “매월 수십억 원의 운영자금을 지출하면서 회사 정상화 및 이를 통한 재직자의 ‘고용안전, 복직을 간절하게 원하고 있는 수백 명의 퇴직자들의 재고용 등을 위해 불철주야 노력하고 있다”고 밝힌 바 있습니다. 국제유가, OPEC+ 대규모 감산 가능성에 상승…WTI 5.2% ↑ 국제유가, OPEC+의 대규모 감산 가능성에 상승 마감 100만 배럴 이상 합의할 시, 지난달 감산폭의 10배 이상에 해당 국제유가, 경기 침체 여파 등으로 4개월 연속 하락세 [아시아타임즈=전소연 기자] 국제유가가 석유수출국기구(OPEC)와 러시아 등 비(非) 산유국 협의체인 OPEC+의 대규모 감산 가능성에 상승 마감했다. 3일(현지시간) 뉴욕상업거래소(NYMEX)에서 11월물 미국 서부텍사스산원유(WTI)는 전일 대비 4.14 달러(5.2%) 상승한 배럴당 83.63 달러에 거래를 마감했다. 12월물 브렌트유는 3.72 달러(4.4%) 오른 배럴당 88.86 달러로 집계됐다. 시장은 OPEC+가 오는 5일 개최하는 회의에서 하루 최대 100만 배럴 이상 감산에 합의할 가능성에 주목하고 있다. 만일 이들이 100만 배럴 이상 감산에 합의한다면 이는 지난달 결정한 감산폭의 약 10배 이상에 달한다. 전문가들은 OPEC+의 대규모 감산 이유로 유가 하락 대응을 꼽고 있다. 유가는 올해 초 러시아의 우크라이나 침공에 따라 폭등한 뒤 중국의 신종 코로나바이러스감염증(코로나19)에 따른 도시 봉쇄, 경기 침체 우려 등으로 인해 지난 6월부터 4개월 연속 하락세를 보이고 있다. 경계 허문 '보더리스 패션' 열풍…영역 넓힌다 패션업계, 젠더리스·보더리스 트렌드 확대 스포츠 의류·속옷·레깅스·교복도 '젠더리스'…매출도 쑥쑥 "'젠더리스' 키워드가 소비 시장에 새로운 패러다임 제시" [아시아타임즈=류빈 기자] 패션업계에 경계를 허문 ‘보더리스(borderless)’ 열풍이 영역을 확장해나가고 있다. 특히 성별 경계를 없앤 ‘젠더리스’ 트렌드는 기존에 캐주얼 의류에 한정됐다면 이제는 스포츠웨어, 학생복 등 다양한 의류 카테고리로 번지고 있는 추세다. 3일 패션업계에 따르면 보더리스 트렌드 중 가장 대표적을 손꼽히는 것은 성별을 구분 짓지 않는 ‘젠더리스(genderless)’ 패션이다. 세계적 팝스타인 해리 스타일스가 2020년 영국의 대표 음악 시상식인 '브릿 어워드'에 레이스 셔츠, 보라색 니트와 진주 목걸이를 걸치고 등장해 눈길을 끌었다. 국내에서는 배우 이정재가 최근 처음 감독을 맡은 영화 '헌트' 홍보 차 출연한 TV 예능 프로그램에 진주 목걸이를 착용한 채로 출연했다. 여성 패션의 전유물로 손꼽히던 진주 목걸이, 레이스 등이 소위 ‘옷 잘 입는 남자’들로 손꼽히는 셀럽들에게 핫한 패션 아이템으로 떠오른 것이다. 젠더리스는 단순히 하이패션과 셀럽들의 패션에만 국한된 것이 아니다. 젠더리스 패션은 소비자의 접근성을 높여 다양한 패션 카테고리에 적용되고 있다. 최근에는 스포츠와 속옷 의류에도 젠더리스 바람이 불고 있다. 지난 7월 글로벌 스포츠 브랜드 나이키는 서울 마포구 홍대에 ‘나이키 스타일 홍대’를 오픈했다. 이 매장은 성별 구분이 없는 ‘젠더 플루이드(Gender-Fluid)’ 콘셉트의 매장이다. 총 3층 규모로 구성됐다. 남성용, 여성용이 아닌 스타일별로 아이템을 진열했으며, ‘오버사이즈 S, ‘루즈핏 L’ 등으로 상품을 구분해 각자의 취향에 따라 선택할 수 있도록 했다. 신세계인터내셔날이 운영하는 라이프스타일 브랜드 ‘자주’는 지난해 여성용 사각팬티를 처음 선보였다. 최근 여성 소비자들이 몸에 딱 달라붙는 하의 보다 품이 넓은 편안한 패션을 즐겨 입고, 속옷 역시 달라붙지 않은 편안한 속옷을 선호하게 되면서 기존 남성용 트렁크나 드로즈로만 출시됐던 사각팬티가 여성용으로도 나오게 된 것이다. 반면, 몸에 딱 달라붙는 레깅스는 남성 소비자들의 수요가 늘고 있다. 국내 1위 레깅스 업체 젝시믹스는 2분기 매출 528억원을 기록한 가운데, 이 중 남성 레깅스·이너웨어 매출액이 109억원을 차지했다. 또 다른 국내 레깅스 업체 안다르는 지난 2분기에 남성 레깅스 매출로 102억원을 기록했다. 여성복 브랜드가 남성복 시장에 진출하는 경우도 등장했다. 1977년 론칭해 1세대 여성복 브랜드로 손꼽히는 신세계인터내셔날의 '스튜디오 톰보이'는 45년 만에 남성복 시장에 진출했다. 2019년 젠더리스 트렌드 따라 론칭한 남성 제품이 큰 인기를 얻어 본격적으로 남성복 사업을 확장하겠다는 계획이다. 실제로 남성 제품은 여성복 매장에서 함께 판매됐음에도 불구하고 올해 상반기 매출이 전년 동기 대비 85% 증가하며 좋은 반응을 나타냈다. 스튜디오 톰보이는 14일 대구 신세계백화점에 매장을 여는 등 올 하반기 롯데·신세계·현대백화점 등에 총 10개 남성 단독 매장을 오픈할 계획이다. 학생복 업계도 성 고정관념에서 벗어나 소비자 선택의 폭을 확대하고 있다. 최근 ‘편한 교복’ 트렌드에 따라 바지 교복을 선호하는 여학생이 늘고 있다는 점에 주목해, 여학생용 교복 바지 출시가 이어지고 있는 것이다. 형지엘리트의 교복 브랜드 엘리트학생복은 지난 5월 ‘에어 소프트 웜스판’ 바지를 새롭게 출시하며 라인업을 강화했다. 기존 ‘소프트 웜스판’ 바지의 장점은 그대로 살리고 보온성과 경량성을 더욱 높인 것이 특징이다. 폴리에스터와 레이온 혼방 소재에 신축성이 좋은 라이크라 원사를 더했으며, 투명 페트병에서 추출한 원사를 적용해 친환경적 요소를 가미했다. 주름이 적게 생기는 ‘링클 프리 구김방지’ 가공법을 통해 장시간 깔끔하게 착용할 수 있는 것도 장점이다. 업계 관계자는 “최근 MZ 세대를 중심으로 남녀 성별에 얽매이지 않는 '젠더리스'가 트렌드로 자리 잡고 있다”며 “​남성들의 전유물로 여겨졌던 슈트가 여자들 사이에서 인기를 끌고 화장품 광고 속에 남자 모델이 등장하는 등 점차 '젠더리스'라는 키워드가 소비 시장에 새로운 패러다임을 제공하고 있다”고 말했다. 전문가의 목소리 박상덕 칼럼 UN의 24/7 CFE 운동 권강주 칼럼 청산에 머루 다래는 부모님께 드리옵고 임규관 칼럼 ‘아! 가을인가’ 부르기 정균화 칼럼 승리의 언어 신문사소개 개인정보취급방침 이용약관 청소년보호정책 기사제보 제휴문의 공지.사고 서울특별시 중구 퇴계로31길 27 프라임빌딩 8층 대표전화 : 02-801-1800 FAX : 02-801-1819 제 호 : 아시아타임즈 정기간행물번호 : 서울 가 09927 등록일 : 2008-07-16 인터넷신문 : 서울 아 00624 발행인 대표이사 : 조용하 편집국장 : 송남석 청소년보호관리책임자 : 조주현 『열린보도원칙』 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 : 김재현 / TEL : 02-801-1842 / email : s891158@asiatime.co.kr 본 콘텐츠의 저작권은 아시아타임즈 또는 제공처에 있으며 이를 무단 이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. Copyright ⓒ 2019 아시아타임즈 All rights reserved. email : asiatimes@asiatime.co.kr HOME LOG IN Copyright ⓒ 2019 아시아타임즈 All rights reserved.</t>
-  </si>
-  <si>
-    <t>효리의단골집 서귀포갈치조림 먹으러 찾는 제주도 중문 관광단지 맛집 ‘이조은식당’ - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-03 오후 09:59:17 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
-  </si>
-  <si>
-    <t>효리의단골집 칼칼한 갈치조림으로 제주도 중문 관광단지 맛집 1위 ‘이조은식당’ - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-03 오후 09:59:17 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 2019년도 제1차 자문위원회 회의 개최 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:30 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도관광협회, 2019년도 제1차 자문위원회 회의 개최 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도관광협회, 2019년도 제1차 자문위원회 회의 개최 문유미 기자 승인 2019.03.01 12:39 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도관광협회(회장 김영진)는 지난달 28일 제주종합비즈니스센터 대회의실에서 2019년도 제1차 자문위원회 회의를 개최했다. 이날 회의에서는 제주관광이 당면한 내국인 관광객 감소, 숙박업 공급과잉 등에 대한 의견 수렴과 함께 협회 소관 사업 추진방향에 대한 집중 논의가 이뤄졌다. 문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>3월 제주도 관광 추천 명소 ‘새별오름 제주 들불축제’ 맛집! 제주음식 별미한상차림 ‘탐라반상’ - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:30 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 3월 제주도 관광 추천 명소 ‘새별오름 제주 들불축제’ 맛집! 제주음식 별미한상차림 ‘탐라반상’ 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME LIFE in BIZ 3월 제주도 관광 추천 명소 ‘새별오름 제주 들불축제’ 맛집! 제주음식 별미한상차림 ‘탐라반상’ 김대일 승인 2019.03.07 10:36 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × (사진제공= 제주시 '탐라반상') 제주관광공사가 3월에 놓치지 말아야 할 제주관광추천 10선을 발표했다. 제주관광공사는 ‘봄날, 꽃길 그리고 제주의 화양연화’라는 주제로 제주도 내 관광지와 자연, 체험, 축제, 음식 등의 분야로 구성된 3월 제주 관광 추천 10선을 공개했다. 3월 제주 관광 추천 10선에는 ▲새별오름 제주들불축제, ▲유채꽃,,▲낙천리 아홉굿마을, ▲납읍리 난대림 지대 ‘금산공원’, ▲도두동 무지개 해안도로&amp;더럭초등학교, ▲아부오름, ▲소인국 테마파크, ▲객주리(쥐치) 등이 선정됐다. 이 중에서 새별오름 제주들불축제는 매년 30만 명이 찾을 정도로 인기가 많은 제주도의 대표적인 문화축제 중 하나로 1997년부터 매년 개최해 오고 있으며, 22회째를 맞는 올해는 3월 7일~10일까지 행사를 진행한다 제주들불축제는 중산간 초지의 해묵은 풀과 해충을 없애기 위해 불을 놓는 ‘방애’라는 제주 풍습을 현대화하여 발전시킨 행사로 타오르는 불에 새로운 희망을 담아 날려 보내보자는 염원을 담고 있다. 이번 들불축제는 삼성혈 부근과 새별오름에서 들불 불씨 봉송퍼레이드, 소원달집 만들기 및 태우기, 내 소원문구 레이저 쇼 등 다채로운 행사가 마련되며, 마치 들불이 난 것 같은 착각이 일 정도로 장관을 이루는 들불축제의 하이라이트 ‘오름불 놓기’는 셋째 날 진행된다. 새별오름 들불축제 주변 제주 서쪽 관광지는 카멜리아힐, 오설록 티 뮤지엄, 유리의성, 신화월드, 항공우주박물관, 송악산, 산방산, 중문관광단지, 서귀포올레시장 등이 가볼만한 관광지로 볼거리가 많다. 특히 새별오름에서 약 10km 거리에 위치한 유리의성 입구에는 제주 도민들의 단골식당 제주음식맛집 탐라반상’이 있다. (사진제공= 제주시 '탐라반상') 제주시 한경면에 위치한 ‘탐라반상’은 ‘제주도의 자연산 곡물, 채소, 과일, 생선 등으로 차려진 밥상’을 의미하며, 제주산 흑돼지부터 생물 생선, 로컬푸드, 녹차로 만든 디저트까지 제주도 여행 중 꼭 먹어 봐야할 다양한 제주음식들을 맛볼 수 있는 건강음식점이다. 제주의 맛과 음식으로 메뉴를 차별화시킨 ‘탐라반상’은 제주도에서만 만날 수 있는 자연 식재료를 이용한 이색적인 메뉴 구성으로 진심이라는 레시피로 정성이 담긴 요리를 언제나 늘 항상 변함없이 차려내는 제주도 건강뷔페이다. 신화월드 맛집 ‘탐라반상’은 제주도의 바다, 산, 오름, 땅이 길러낸 신선한 제철 식재료를 이용하여 제주 자연을 담은 제주음식 별미한상차림을 서비스하는 힐링 음식점으로 조미료, 첨가제, 인스턴트, 반조리음식, 중국산 식재료를 사용하지 않고, 푸드, 디저트, 브레드 등 모든 요리를 주인장의 특제 레시피로 직접 만들어 제공한다. 또한, 모든 요리에 들어가는 소스와 쌈장, 디저트, 음료, 베이킹 등도 주인장이 직접 연구, 개발하여 매일 새로운 요리를 맛볼 수 있다. 오설록 티 뮤지엄에 인근에 위치한 오설록 맛집 ‘탐라반상’은 제주도에서 흔하게 볼 수 있는 음식, 또는 자극적이고 기름진 메뉴에 식상한 미식가, 식도락 여행자 건강음식 매니어들에게 진정한 제주의 맛과 건강한 음식을 맛볼 수 있도록 제주도 향토음식을 웰빙 건강식으로 개발하여 제공하고 있다. ‘탐라반상’은 제주도민은 물론 관광객, 다양한 한국음식을 경험하고 싶은 외국인들도 자주 찾고 있으며, 비건, 채식주의자, 혹은 여행 중 식단관리를 해야 하는 부모님과 함께, 혹은 아이들과 함께 편안하게 식사를 할 수 있다. ‘탐라반상’은 제주영어교육도시 국제학교와도 약 5km 내외 거리로 제주국제학교 학부모들과 외국인 선생님들이 자주 찾는 단골식당이며, 저지오름, 저지문화예술인마을도 약 3km 거리로 가깝다. 제주도로 떠나는 봄여행을 계획하고 있다면 제주 최대 규모의 새별오름 들불축제도 구경하고, 제주도에서만 맛볼 수 있는 제주음식 별미한상차림 ‘탐라반상’에서 진짜 제주의 맛을 느껴보길 추천한다. 김대일 기자  kdichb@naver.com 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김대일 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+    <t>효리의단골집 ‘이조은식당’ 제주도 중문 관광단지 맛집 中 갈치조림 후기 1등 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>베트남-제주도 문화관광교류 활성화 간담회 열려 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 베트남-제주도 문화관광교류 활성화 간담회 열려 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 베트남-제주도 문화관광교류 활성화 간담회 열려 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2019.03.28 15:00 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 27일 오전 11시에 도청 삼다홀에서 베트남 람동성과 문화관광교류 활성화 추진 간담회를 개최하고 의견을 교환했다.안동우 정무부지사가 주재한 이번 간담회에는 베트남측에서 '도안 반 비엣' 람동성장, 달랏 시장 등 고위 공무원과 기업인 등 베트남 관계자 35명과 제주자치도측에서는 사단법인 서명숙 이사장, 사단법인 제주올레 협력사, 제주자치도 관계자 등 50여명이 참석했다.람동성은 베트남내 여행 선호지역 1위로 해발 1500m에 조성된 유럽풍의 휴양지로 연간 650만명이 관광객이 찾는 화훼와 커피 등 농업이 발달한 도시로 앞으로 한국(제주)과 농업, 문화관광 등 상호교류 및 투자 확대하기를 바란다고 "도안 반 비엣" 람동성장은 말했다.안동우 정무부지사는 "달랏 올레길 개설을 통해 제주도와의 인적․문화적 교류가 활발히 이뤄져 베트남과 지구촌을 이어주는 아름다운 길이 되길 바란다"고 말했다.간담회 후 참석자들은 제주올레 7코스를 답사했다.한편, 사단법인 제주올레는 그동안 일본규슈, 몽골 등에 제주올레 브랜드를 수출해 해외 올레길을 꾸준히 열어오고 있으며 올레길을 통한 제주 관광활성화에 크게 기여하고 있다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주에 '공정관광' 꽃 필까…제주도의회, 조례 제정 추진 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주에 '공정관광' 꽃 필까…제주도의회, 조례 제정 추진 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주에 '공정관광' 꽃 필까…제주도의회, 조례 제정 추진 송고시간2019-03-27 17:38 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 김호천 기자 기자 페이지 (제주=연합뉴스) 김호천 기자 = '관광 1번지' 제주에서 '공정관광'을 꽃 피우기 위한 제도 마련이 추진된다. 제주 공정관광 육성 조례 제정 토론회 [제주도의회 제공] 제주도의회 김희현·강민숙 의원은 27일 오후 제주도의회 소회의실에서 '제주 공정관광 육성 조례 제정을 위한 전문가 토론회'를 개최했다. 이들 의원은 이날 공개한 조례안에서 공정관광을 '관광행위가 이루어지는 지역사회 구성원들의 삶과 문화, 환경 등을 보호하고, 관광객과 지역 공동체간의 공평하고 공정한 거래가 이루어져 이로 인해 파생되는 유·무형의 이익이 지역사회에 공정하게 분배 환원되는 관광'으로 정의했다. 광고 공정관광의 원칙으로는 경제적 지속 가능성, 사회적 지속 가능성, 문화적 지속 가능성, 생태적 지속 가능성, 윤리적 관광 소비, 관광 목적지 지역 주민에 대한 공정한 편익 분배 및 환원을 제시했다. 도지사는 이 같은 정의와 원칙에 따라 5년마다 공정관광 육성계획을 수립하고, 그에 따른 시책을 마련해 매년 추진 상황을 도의회 해당 상임위원회에 보고하도록 했다. 도지사가 해야 할 사업으로 공정관광 기반시설 및 인프라 확충, 공정관광 전문인력·해설사 양성 및 역량강화 교육, 공정관광 홍보 및 마케팅, 공정관광 컨설팅·실태조사 및 연구, 공정관광 국내외 교류 사업 등을 제안했다. 또 공정관광 사업을 효율적으로 추진하기 위해 관련 기관 및 단체와의 협력체계인 공정관광협의회를 구성하고, 공정관광지원센터를 설치해 운영하며, 주민 참여형 우수·시범마을을 지정하는 방안도 담았다. 이날 토론회에는 문경복 제주도 관광정책과장, 강봉석 제주관광공사 지역관광처장, 부석현 제주도관광협회 조사연구실장, 신동일 제주연구원 연구위원, 임인순 제주농어촌체험휴양마을협의회장, 허순영 착한여행 대표 등이 참석했다. 김희현 의원은 "제주 관광산업이 급성장하며 특정 관광지에서 오버 투어리즘이 발생하고, 지역 주민의 관광에 대한 부정적 인식이 퍼지고 있다"면서 "지속 가능한 관광을 위해 관광객과 지역 주민이 모두 만족하는 질적 성장을 이루기 위한 대안으로 공정관광 제도를 마련하고자 한다"고 설명했다. khc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2019/03/27 17:38 송고 #제주도의회 #공정관광 #조례 #김희현 #강민숙 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 러시아 출신 억만장자 벤처투자자, 전쟁 반대하며 시민권 포기 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 선우은숙, 4살 연하 아나운서 유영재와 재혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 유병호, 문자 논란에 "송구…그 소통은 정상적인 것" 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 22 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 北전술핵 과시·野친일공세에…대통령실 "동북아 안보현실 엄중"(종합2보) 댓글수 9 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제주관광 블로그기자단 위촉식 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 제주관광 블로그기자단 위촉식 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도관광협회, 제주관광 블로그기자단 위촉식 기자명 강지환 기자 입력 2019.03.26 14:04 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 블로그 통한 제주관광 홍보 본격 활동 돌입 제주특별자치도와 도관광협회(회장 김영진)는 26일 제주종합비즈니스센터에서"2019 제주관광 블로그기자단" 위촉식을 개최했다고 26일 밝혔다. 이에 따라 블로그기자단은 3월부터 12월까지 9개월간 본격적인 활동에 돌입할 예정이다. 우선 시기별 트렌드에 걸맞은 제주 관련 콘텐츠를 제작·홍보할 예정이다.더불어 특별취재를 통한 도내 이색 체험활동으로 제주의 다양한 모습을 홍보하는데 힘쓸 계획이다.한편 지난 2011년부터 9년간 이어져 오고 있는 제주관광 블로그기자단은 제주 전문 블로거 지원으로 신뢰성 있는 여행정보를 제공하고 활성화하는데 기여하고 있다. 올해는 38명의 신청자 가운데 블로그 인지도, 전문성, 콘텐츠의 완성도 등의 전문가 심사를 거쳐 최종 11명의 기자단이 선정됐다. 강지환 기자 wlghks4889@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도·제주관광공사, 인도네시아 밀레니얼 대상 홍보 팸투어 추진 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도·제주관광공사, 인도네시아 밀레니얼 대상 홍보 팸투어 추진 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도·제주관광공사, 인도네시아 밀레니얼 대상 홍보 팸투어 추진 기자명 강지환 기자 입력 2019.03.26 14:37 수정 2019.03.26 19:00 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도와 제주관광공사가 인도네시아 밀레니얼 세대를 대상으로 제주관광 홍보 팸투어를 진행하면서 세계 최대 관광시장인 무슬림 개별관광객 유치 확대에 크게 기여할 것으로 보인다. 제주도와 제주관광공사(사장 박홍배)는 인도네시아 연기자와 아이돌 가수, 여행 블로거 등을 포함한 4명의 인플루언서를 초청, 지난 25일부터 28일까지 사흘간의 일정으로 제주관광 홍보 팸투어를 추진하고 있다고 26일 밝혔다. 이 기간 인플루언서는 제주의 봄꽃 명소와 해안도로, 카페 등을 방문, 무슬림 젊은 소비자층 대상으로 제주관광의 매력과 여행 방법 등을 소개하고 있다. 아울러 인플루언서와 별개로 온라인 뉴스 채널인 '김파란(Kimparan)' 미디어 관계자도 초청, 제주관광 콘텐츠와 함께 이들의 제주방문 소식을 전하고 있다.한편 인플루언서는 여행과 뷰티, 패션 분야에서 인지도가 높으며 인스타그램과 유튜브 등 사회관계망서비스(SNS) 채널별 최대 200만명 이상의 팔로워를 보유하고 있다.전 세계 무슬림 인구는 지난 2015년을 기준으로 약 18억명으로 추산되며 지역별로 인도네시아와 말레이시아 등 동남아시아 지역에 가장 많이 분포하고 있는 것으로 파악되고 있다. 특히 인도네시아의 경우 무슬림이 전체 인구의 약 90%에 육박하고 있으며 해마다 라마단(금식기간)이 끝나는 시기에 시작되는 르바란(무슬림 최대 명절·6월 1~9일)에 맞춰 여행수요가 급증하고 있다. 강지환 기자 wlghks4889@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>군위군 고지바위권역 장군마을, 제주도 선진 체험관광지 견학 - 경북일보 - 굿데이 굿뉴스 × 전체기사 경북대구 전체 경북 대구 울산 지방의회 전체 경북 대구 사회 전체 사건사고 날씨 노동·복지 환경 교통·항공·항만 법원·경찰 국방 경북·대구 코로나19 속보 정치 전체 2022 6·1 지방선거 대통령실 국회·정당 행정·자치 외교 북한·남북 21대 총선 선거포토 열전현장 여론조사 지방선거 조합장선거 선거 경제 전체 철강 건설·부동산 소비자·유통 금융·주식 산업·기업 IT·과학 농업·축산·수산업 자동차 국제 문화라이프 전체 공연·전시 생활 맛집 종교 책 아침시단 운세 복권 TV·연예 영화 칠포재즈페스티벌 포토포엠 문학대전 당선작 청도관광사진전 호미문학대전 스포츠 전체 축구 야구 농구 골프 생활체육 바둑 헬스 교육 전체 대구 교육청 경북 교육청 대학교 학교 사람들 전체 새얼굴 동정 인사 알림 결혼 부고 오피니언 전체 사설 삼촌설 아침광장 데스크칼럼 노트북을 열며 연합시론 기고 연재칼럼 의정칼럼 경북포럼 독자투고 경북칼럼 경제인칼럼 경북시평 부동산칼럼 상도동에서 종교인단상 교단단상 TV바로보기 현장리포트 신문고 뉴콘텐츠 전체 경북, 한국 정신문화의 창 경북의 맛·멋·풍류 르포-현장에 답이 있다 기획 만나고 싶었습니다 연중기획-지역민 참여 프로젝트 청소년 안전의식 강화 프로그램 사람의 향기 농어업이 미래산업이다 2022 신년특집 해양 민선 7기 1년 새마을운동 50년 조명 21대 국회에 바란다 미디어 전체 포토 경북일보TV 홍보영상 카드·인포그래픽 커뮤니티·알림 전체 경북일보 알림 바로잡습니다 시민기자 축제·행사 포토코리아 보도자료 연재 TK핫이슈 독자권익위 지면평가 기자상 수상실적 오늘날짜 2022-10-11 (화) 로그인 독자투고 기사제보 지면보기 구독신청 군위 전체 경북대구 경북 도청 포항 경주 김천 안동 구미 영주 영천 상주 문경 경산 군위 의성 청송 영양 영덕 청도 고령 성주 칠곡 예천 봉화 울진 울릉·독도 대구 시청 중구 동구 서구 남구 북구 수성구 달서구 달성군 전체서비스 닫기 경북대구바로가기 경북 대구 지방의회바로가기 경북 대구 사회바로가기 사건사고 날씨 노동·복지 환경 교통·항공·항만 법원·경찰 국방 경북·대구 코로나19 속보 정치바로가기 2022 6·1 지방선거 대통령실 국회·정당 행정·자치 외교 북한·남북 경제바로가기 철강 건설·부동산 소비자·유통 금융·주식 산업·기업 IT·과학 농업·축산·수산업 자동차 문화라이프바로가기 공연·전시 생활 맛집 종교 책 아침시단 운세 TV·연예 영화 칠포재즈페스티벌 포토포엠 문학대전 당선작 청도관광사진전 호미문학대전 스포츠바로가기 축구 야구 농구 골프 생활체육 바둑 교육바로가기 대구 교육청 경북 교육청 대학교 학교 사람들바로가기 새얼굴 인사 알림 결혼 부고 오피니언바로가기 사설 삼촌설 아침광장 데스크칼럼 노트북을 열며 기고 연재칼럼 의정칼럼 경북포럼 독자투고 시민기자 뉴콘텐츠바로가기 경북, 한국 정신문화의 창 경북의 맛·멋·풍류 르포-현장에 답이 있다 기획 만나고 싶었습니다 연중기획-지역민 참여 프로젝트 청소년 안전의식 강화 프로그램 사람의 향기 농어업이 미래산업이다 2022 신년특집 미디어바로가기 포토 경북일보TV 카드·인포그래픽 TK핫이슈바로가기 독자권익위 지면평가바로가기 기자상 수상실적바로가기 모바일 버전 이전 다음 군위군 고지바위권역 장군마을, 제주도 선진 체험관광지 견학 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경북대구 경북 군위 사람들 군위군 고지바위권역 장군마을, 제주도 선진 체험관광지 견학 이만식 기자 승인 2019년 03월 26일 19시 55분 지면게재일 2019년 03월 27일 수요일 17면 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 네이버포스트 구글+ 카카오스토리 카카오톡 네이버밴드 텔레그램 URL복사 × 제주국제대 서비스경영연구소와 MOU체결 ▲ 이철우 경북도지사 방문. 경북형 행복씨앗마을인 군위군 고지바위권역 장군마을이 최근 2박 3일간 주민 13명이 참여한 가운데 제주도 선진 체험관광지 견학을 하고, 제주국제대 서비스경영연구소와 MOU를 체결했다고 26일 밝혔다.이번 견학은 ‘경북형 행복씨앗마을’ 사업의 하나로 시행하였으며, 가족 단위 나들이객들이 많이 찾는 선진 체험관광지의 조형물 및 마을가공상품 벤치마킹, 서비스교육 이수 등을 통해 추세에 맞는 신규 체험관광 교육프로그램을 개발하기 위해 진행됐다.특히 이번 선진지 견학을 통해 고지바위권역은 제주국제대학교 서비스경영연구소와 체험관광 교육프로그램 서비스 활성화를 위한 협약을 체결했다. 앞으로 두 기관은 체험 관련 새로운 지식·기술의 창출 및 연구·개발, 강의, 학술교류 사업 등 제반적인 사항에 대하여 상호발전과 유기적인 협력관계를 도모해 나갈 것을 약속했다.군위군 고지바위권역 장군마을 이준남 사무장은 “체험관광인프라 확충과 서비스 향상, 콘텐츠 개발에 더욱 노력을 기울이고 있다. 최신 유형 조망과 농촌 체험상품개발의 안목을 높여 앞으로 방문객들에게 더욱 새로운 볼거리와 즐거움을 선사해 나갈 계획이다”고 말했다. ▲ 제주국제대에서 서비스 교육을 받고있다. 저작권자 © 경북일보 - 굿데이 굿뉴스 무단전재 및 재배포 금지 이만식 기자의 다른기사 보기 이만식 기자 mslee@kyongbuk.com mslee@kyongbuk.com 군위 의성 담당 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 후 댓글 작성이 가능합니다. 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 경북대구 Hot 인기기사 1대구예술제 오른 ‘영등굿’ 종교 편향 제기…대구예총 “유네스코 유산, 민속예술로 봐야” 2전국체전 사흘째…경북선수단, 하루에 금 22·은 22·동 25 '선전' 3문경 도로변서 차량화재...소사체 부부 발견 4대구 동화사 '제12회 팔공산 산중장터 승시축제' 개최 5[포토] '핑크빛으로 물들어가는 가을'…칠곡 가산수피아 수목원 6영호남 문화예술로 뭉쳐 새로운 지방시대 이끈다…11일 경북도청 일원서 화합대축전 개최 7대구百 본점 휴·폐업, 임대차계약 갱신거절사유 안돼…건물인도 소송 ‘패소’ 8포항 ‘핫플레이스’ 배경 제기차기 유튜브 영상 조회수 416만 돌파 '화제' 9전·현직 조합장에 신인들 가세…예천, 남예천농협 등 3곳 3파전 10'천년고찰' 영천 은해사, 창건 1213주년 개산대제 봉행 설악산은 한겨울 설악산은 한겨울 [포토] '핑크빛으로 물들어가는 가을'…칠곡 가산수피아 수목원 [포토] '핑크빛으로 물들어가는 가을'…칠곡 가산수피아 수목원 [포토] '대구시 중구 종로 맛길 레트로 페스티벌' [포토] '대구시 중구 종로 맛길 레트로 페스티벌' [포토] 의성서 열린 '2022 아이사랑가족대축제' [포토] 의성서 열린 '2022 아이사랑가족대축제' [포토] 3년만에 대면으로 돌아온 '대구 약령 한방문화축제' [포토] 3년만에 대면으로 돌아온 '대구 약령 한방문화축제' [포토] 2022 인생백년 아카데미…건축디자이너 유현준 교수 특강 [포토] 2022 인생백년 아카데미…건축디자이너 유현준 교수 특강 [포토] 내 일자리는 어디?…'대구·경북 온·오프라인 채용박람회' [포토] 내 일자리는 어디?…'대구·경북 온·오프라인 채용박람회' [포토] 윤석열 대통령, 상주 스마트팜 혁신밸리 방문 [포토] 윤석열 대통령, 상주 스마트팜 혁신밸리 방문 설악산은 한겨울 [포토] '핑크빛으로 물들어가는 가을'…칠곡 가산수피아 수목원 [포토] '대구시 중구 종로 맛길 레트로 페스티벌' [포토] 의성서 열린 '2022 아이사랑가족대축제' [포토] 3년만에 대면으로 돌아온 '대구 약령 한방문화축제' [포토] 2022 인생백년 아카데미…건축디자이너 유현준 교수 특강 [포토] 내 일자리는 어디?…'대구·경북 온·오프라인 채용박람회' [포토] 윤석열 대통령, 상주 스마트팜 혁신밸리 방문 오늘 주간 월간 1 대구예술제 오른 ‘영등굿’ 종교 편향 제기…대구예총 “유네스코 유산, 민속예술로 봐야” 2 대구 동화사 '제12회 팔공산 산중장터 승시축제' 개최 3 영호남 문화예술로 뭉쳐 새로운 지방시대 이끈다…11일 경북도청 일원서 화합대축전 개최 4 대구百 본점 휴·폐업, 임대차계약 갱신거절사유 안돼…건물인도 소송 ‘패소’ 5 전·현직 조합장에 신인들 가세…예천, 남예천농협 등 3곳 3파전 6 포항 "스틸야드서 '남의 잔치' 안돼" 7 포항해경, 월성원전 앞 해상 수상레저활동 금지구역 지정 고시 8 대구 수성아트피아, 첫 빈집프로젝트…12월 25일까지 ‘수성 인사이드 49-31전’ 9 상주시, 대구시 군사시설 통합 이전 유치 총력 10 홍준표 "대구시청 공무원 열정적이고 추진력 강해" 1 대구시, 국내 대기업 유치로 신수종 산업 육성 나선다 2 [부고] 김국현(문창고등학교 체육교사)씨 별세 3 [포토] 3년만에 대면으로 돌아온 '대구 약령 한방문화축제' 4 [포토] 2022 인생백년 아카데미…건축디자이너 유현준 교수 특강 5 [우리지역 과학인재] 30. 이지훈 메쉬코리아 기획조정실장 6 [포토] 윤석열 대통령, 상주 스마트팜 혁신밸리 방문 7 경북 메타버스 수도 만든다…파급효과 1조 8 제103회 전국체전, 7일부터 7일간 대장정…경북 3위·대구 9위 '정조준' 9 [포토] 내 일자리는 어디?…'대구·경북 온·오프라인 채용박람회' 10 홍준표, 지방에 각종 권한 통큰 이양·대구경북통합신공항 건설 필요성 강조 1 포항 블루벨리산단 하천 초토화…LH 준공 3년 만에 와르르 2 축구장 4800배 태양광 경북 덮었다 3 [포토] '썬플라워 크루즈호' 후포-울릉 노선 첫 취항 4 "모조리 망가졌다"…포항 이마트 푸드코트 상인들의 눈물 5 대구-일본 하늘길 열린다…11월 3개 노선 운항 재개 6 대구시, 수성알파시티 인근에 ‘제2 수성알파시티’ 조성한다 7 대구시, 국내 대기업 유치로 신수종 산업 육성 나선다 8 청도군청 남녀 공무원 저수지에 빠져 1명 사망 1명 중태 9 내년 국비 지원 중단 위기 '대구행복페이' 어쩌나 10 울릉도 뱃길에 럭셔리 더하다 …'썬플라워 크루즈호' 29일 취항 영주 풍기인삼, 라이브커머스 판매…쇼핑Live 총 7일간 진행 영주 풍기인삼, 라이브커머스 판매…쇼핑Live 총 7일간 진행 영주시, 소백산 인삼씨앗 뿌리기 퍼포먼스 진행 영주시, 소백산 인삼씨앗 뿌리기 퍼포먼스 진행 울릉군, 대한민국해양수산엑스포 참가 수산특산품 홍보 울릉군, 대한민국해양수산엑스포 참가 수산특산품 홍보 제5회 의성슈퍼푸드마늘축제 성료…3일간 10만명 방문 제5회 의성슈퍼푸드마늘축제 성료…3일간 10만명 방문 세계한인여성회장협의회·세계한인회장단, 포항 매력에 빠지다 세계한인여성회장협의회·세계한인회장단, 포항 매력에 빠지다 제46회 군위군민체육대회 성료…군민·출향인 1만여 명 참여 제46회 군위군민체육대회 성료…군민·출향인 1만여 명 참여 대구대 호텔관광경영학부, 일본 조선학회 오카야마 젠이치로 고문 초청 특강 대구대 호텔관광경영학부, 일본 조선학회 오카야마 젠이치로 고문 초청 특강 알림 [본사 손님] 문기봉 대구공공시설관리공단 이사장 사건·사고 제보 010-5811-4004 인재채용 지역 언론의 사명을 다 할 기자를 모집합니다. 회사소개 조직 및 연락처 광고안내 윤리강령 편집규약 고충처리인 개인정보취급방침 청소년보호정책 이메일무단수집거부 더보기 재난보도준칙 자살보도윤리강령 자살보도를 위한 실천요강 제휴신청 축제행사 청탁금지법 현황 본사 경상북도 포항시 북구 중흥로 321 12·13층 (㉾ 37745) Tel. 054-289-2222 Fax : 054-289-2235 대구본부 대구광역시 동구 동대구로 501 (㉾ 41256) Tel. 053-745-1122 Fax. 053-741-0335 북부본부 경상북도 안동시 풍천면 수호로 67 (㉾ 36759) Tel. 054-852-5200 Fax. 054-852-5301 인터넷신문등록번호 : 경북 아 00554 등록일자 : 2019. 10. 2 발행·편집·인쇄인 : 한국선 청소년보호책임자 : 조현석 경북일보는 인터넷신문위원회 윤리강령을 준수합니다. Copyright © 1990-2022 경북일보 - 굿데이 굿뉴스. All rights reserved. 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 수학여행단 등 유치 홍보 마케팅 지원 강화 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 수학여행단 등 유치 홍보 마케팅 지원 강화 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도관광협회, 수학여행단 등 유치 홍보 마케팅 지원 강화 기자명 강지환 기자 입력 2019.03.27 12:07 수정 2019.03.27 12:09 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 변화하는 수학여행 시장에 대응 수학여행단 유치 총력 제주도와 도관광협회(회장 김영진)는 제주도로 방문하는 수학 여행단을 유치하기 위해 학교 및 여행업체에 대한 지원을 실시, 대상자를 모집한다고 27일 밝혔다.모집대상은 초·중·고교 20명 이상의 제주도 수학여행을 유치한 도내소재 여행 업체 또는 학교다.접수 기간은 오는 4월 22일까지며 신청은 제주도관광협회를 통해 하면 된다.이와 관련한 자세한 사항은 제주도관광협회 (www.visitjeju.or.kr), 제주관광공사(ijto.or.kr) 홈페이지 내 공지사항을 참고하거나 담당부서(064-741-8794)로 문의해 확인할 수 있다.한편 제주행 수학여행 비용 증가 및 전국지자체들의 공격적인 유치 인센티브 지원정책 등으로 수학여행단 유치를 위한 경쟁이 갈수록 치열해지고 있다. 강지환 기자 wlghks4889@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 서귀포시 맛집 만복밀면, 주변 관광지로 중문관광단지와 탄산온천 등 있어 &lt; 경제 &lt; 기사본문 - 내외경제TV 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 기사제보 2022-10-11 12:18 (화) facebook naver post 종합 정치 일반 종합 경제 일반 국내 주가 국제 사회 일반 교육 사건·사고 국제 산업 일반 부동산 금융 제약·바이오 항공·자동차 게임 블록체인 AI·로봇 유통 종합 전국 수도권 영남 호남 충청 생활·문화 종합 스포츠 연예 생활·문화 포토 내외경제TV 오피니언 칼럼 동정 사고/알림 기자수첩 속보 On Air 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 서귀포시 맛집 만복밀면, 주변 관광지로 중문관광단지와 탄산온천 등 있어 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 제주도 서귀포시 맛집 만복밀면, 주변 관광지로 중문관광단지와 탄산온천 등 있어 기자명 김태곤 기자 입력 2019.03.25 17:36 수정 2020.03.12 06:03 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [서울=내외경제TV] 김태곤 기자 = 제주도는 우리나라에서 가장 방문자가 많은 여행지라고 해도 과언이 아닐 만큼 국내 신혼 여행지로도 유명하다. 또한, 공기와 경치도 좋기 때문에 드라이브를 즐기며 여러 관광지를 즐길 수 있다는 게 큰 장점이다. 특히 각 지역마다 맛집과 볼거리가 많아 계절에 상관없이 방문이 가능하다. 서귀포에 위치한 올레길 주변에 가볼만한 곳으로는 제주 송악산, 산방산, 탄산온천, 용머리해안, 중문관광단지가 대표적인 관광지며, 이 주변에서 저렴한 한 끼를 할 수 있는 제주 안덕 맛집 만목밀면은 제주 현지인들도 방문하는 음식점이다. 메뉴는 밀면, 비빔밀면, 고기국수, 돼지국밥, 순대국밥 등이 있으며 밀면의 경우 7천원, 수육의 경우 5천원이라는 저렴한 가격으로 즐길 수 있다. 또한, 여행을 하면서 음식에 비해 가격이 비싸다고 생각이 든다면 이렇게 현지인 추천 밥집에서 점심, 저녁을 이용하는 것도 좋다. 최근에는 여행을 하기 앞서 관광지를 알아보면서 주변 맛집을 알아보려는 이들이 많아지고 있다. 이로 인해 제주 산방산 및 송악산 맛집과 용머리해안, 서귀포 밀면, 고기국수, 국밥 맛집 등을 검색해 코스별로 다른 맛집을 정해놓고 방문하는 이들도 늘고 있는 추세다. 만복밀면 관계자는 "몸에 좋은 재료들로 사용해 만드는 음식이라 제주도에서만 맛 볼 수 있는 깊은 맛을 볼 수 있으며, 접근성이 높고 편리하며 넓고 쾌적한 주차장이 있어 관광객들도 쉽게 찾아올 수 있고 큰 건물 안에 위치해 있어 단체모임과 회식 등 다양한 모임장소로도 좋다"고 설명했다. 식사 후 근방에 방문할 수 있는 관광지로는 송악산 및 용머리해안과 산방산, 탄산온천, 화순항(화순금모래해수욕장), 오설록 티 뮤지엄, 카멜리아힐, 천지연폭포, 성산일출봉, 섭지코지, 중문 등이 있다. 제주도 서귀포시 안덕면 화순리에 위치하여 단체 예약과 픽업서비스는 대표전화로 문의 가능하다. 김태곤 기자 nbntv.ktg@gmail.com 다른기사 보기 저작권자 © 내외경제TV 무단전재 및 재배포 금지 당신만 안 본 뉴스 '나는 솔로' 9기 영자 인스타 파격 노출에 "해킹 당한 거?" '나는 솔로' 9기 옥순 인스타, 수영복 패션에 정숙 "언니, 너무 섹시" '나는 솔로' 9기 정숙 인스타 "이렇게 단아하니 협찬 모델" '나는 솔로' 9기 영자 인스타, "선 넘네" 악플에 경고장? '나는 솔로' 옥순 완전체 결성되나 "7, 10기 옥순님들 들어와" '나는 솔로' 10기 영숙 인스타, 꿀피부 자랑…골프 협찬 모델 예고? '나는 솔로' 10기 현숙 인스타 "포00에서 뭐 하나" 협찬 모델 예고 '나는 솔로' 9기 영자 인스타 파격 노출에 "해킹 당한 거?" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글입력 권한이 없습니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 [서머너즈 워] SWC2022, RAIGEKI 미주 지역 최강자 등극 카드 빅4 앱 오픈페이 서비스 진행 예정 …앱 사용자 분포는? 네이버, 임원의 직장 내 괴롭힘 익명 제보에도 늦장 조사 청와대 개방에 커져만 가는 업무부담...285명의 문화재청 직원들 '부모찬스' 미성년 임대인···최근 5년간 임대소득만 2548억 원 최신뉴스 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 [서머너즈 워] SWC2022, RAIGEKI 미주 지역 최강자 등극 카드 빅4 앱 오픈페이 서비스 진행 예정 …앱 사용자 분포는? 네이버, 임원의 직장 내 괴롭힘 익명 제보에도 늦장 조사 청와대 개방에 커져만 가는 업무부담...285명의 문화재청 직원들 포토뉴스 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 [서머너즈 워] SWC2022, RAIGEKI 미주 지역 최강자 등극 카드 빅4 앱 오픈페이 서비스 진행 예정 …앱 사용자 분포는? 네이버, 임원의 직장 내 괴롭힘 익명 제보에도 늦장 조사 인기뉴스 1 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 2 카드 빅4 앱 오픈페이 서비스 진행 예정 …앱 사용자 분포는? 3 네이버, 임원의 직장 내 괴롭힘 익명 제보에도 늦장 조사 4 청와대 개방에 커져만 가는 업무부담...285명의 문화재청 직원들 5 '부모찬스' 미성년 임대인···최근 5년간 임대소득만 2548억 원 6 최근 3년간 불량 요소수 최소 300만 리터 이상 유통…일 평균사용량의 5배 7 식칼·망치로 위협당하는 국민연금 직원들...고독사·자살 현장 목격도 8 [UP! START] 에스테이트클라우드, 우대빵으로 부동산 중개시장 변혁 예고 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 rss 매체정보 서울특별시 금천구 가산디지털1로 168, C동 12층 1209-1호(가산동, 우림라이온스밸리) 대표전화 : 070-4252-5497 청소년보호책임자 : 정동진 법인명 : (주)내외경제미디어 제호 : 내외경제TV 등록번호 : 서울 아 02225 등록일 : 2012-08-06 발행일 : 2012-08-06 발행·편집인 : 정동진 내외경제TV 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 내외경제TV. All rights reserved. mail to msn06s@nbntv.co.kr 위로 전체메뉴 종합 정치 일반 종합 경제 일반 국내 주가 국제 사회 일반 교육 사건·사고 국제 산업 일반 부동산 금융 제약·바이오 항공·자동차 게임 블록체인 AI·로봇 유통 종합 전국 수도권 영남 호남 충청 생활·문화 종합 스포츠 연예 생활·문화 포토 내외경제TV 오피니언 칼럼 동정 사고/알림 기자수첩 속보 On Air 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회 사랑나눔봉사단, 후원금 200만원 기탁 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도관광협회 사랑나눔봉사단, 후원금 200만원 기탁 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도관광협회 사랑나눔봉사단, 후원금 200만원 기탁 문유미 기자 승인 2019.03.24 13:47 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도관광협회 사랑나눔봉사단(회장 김영진)은 지난 22일 제주도사회복지협의회에서 운영하는 ‘광역푸드뱅크’를 찾아 어려운 이웃들을 위해 써 달라며 후원금 200만원을 기탁했다.문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도, 전통포구 복원해 관광자원으로 활용 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 전통포구 복원해 관광자원으로 활용 등록 2019.03.11 11:00:09 작게 크게 제주도는 도내 전통포구를 관광자원으로 활용하기 위해 복원 정비하고 있다. 사진은 도가 이미 복원정비한 서귀포시 남원읍 하례리 소재 망장포.(사진= 제주도청 제공) 【제주=뉴시스】강정만 기자 = 제주특별자치도는 도내 전통포구인 제주시 삼양, 서귀포시 대정읍 산이수동·표선을 대상으로 올해 7억4200만원을 투입, 어촌 관광자원으로 활용하기 위해 복원·정비한다고 11일 밝혔다. 도는 최근의 걷기 열풍과 함께 어촌체험관광이 활성화됨에 따라 지난 2015년부터 전통포구 복원사업을 추진하고 있다. 도는 지역주민과 전문가 등의 의견을 적극 수렴해 원형을 최대한 살리면서 공동디자인을 도입할 계획이다. 또 불턱, 원담, 신당 등의 어업유산과 연계해 복원·정비할 예정이다. 현재 도내에는 총 36개소의 전통포구가 조사됐으며, 도는 지난해까지 4개소를 복원·정비한 바 있다. 이기우 도 해양산업과장은 “전통포구는 조상들의 삶과 역사가 스며있는 소중한 문화유산”이라며 “최대한 원형에 가깝게 복원해 어촌관광자원으로 활용해 나가겠다”고 밝혔다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 울산시교육청, 사립유치원 42개원 종합 지도·점검 창원시, 150억 규모 동읍 농촌중심지 활성화 사업 추진 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 울산시교육청, 사립유치원 42개원 종합 지도·점검 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 6軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도·제주관광공사 비짓제주, 봄 여행 이벤트 진행 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도·제주관광공사 비짓제주, 봄 여행 이벤트 진행 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도·제주관광공사 비짓제주, 봄 여행 이벤트 진행 기자명 강지환 기자 입력 2019.03.18 15:59 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 18일부터 오는 5월 17일까지...추첨 통해 소정의 기념품 제공 제주꽃길지도제주특별자치도와 제주관광공사(사장 박홍배)는 봄 시즌을 맞아 18일부터 오는 5월 17일까지 제주관광정보 공식사이트 비짓제주를 통해 "제주의 봄은 늘 향기롭다"라는 봄 여행 이벤트를 진행한다고 18일 밝혔다.이번 이벤트는 제주의 봄 꽃 명소와 축제를 한 눈에 볼 수 있는 제주의 봄꽃지도로 제주 관광객 유치 확대를 위해 기획됐다. 참여방법.참여방법은 "제주의 봄은 늘 향기롭다" 비짓제주 테마 콘텐츠를 보고 댓글을 남기는 방식으로 #제주의봄, #장소명 등 해시태그와 함께 리뷰와 사진을 공유하면 자동으로 응모된다.이에 따라 제주도와 제주관광공사는 추첨을 통해 오는 4월 19일과 5월 22일 2회에 걸쳐 총 120명의 이벤트 당첨자를 선정한다.이어 당첨자에게 소정의 기념품을 제공할 예정이다. 강지환 기자 wlghks4889@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 지역자원 활용한 관광활성화 시책 시동 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 지역자원 활용한 관광활성화 시책 시동 등록 2019.03.05 10:46:17 작게 크게 【서귀포=뉴시스】우장호 기자 = 2일 오전 제주 서귀포시 강정동 제주민군복합형관광미항에 영국 국적의 초호화 크루즈선 '퀸 메리(Queen Mary)2호'가 관광객 2400여명을 태우고 입항한 가운데 첫 입국 관광객들이 대정향교에 들러 다도체험을 하고 있다.퀸 메리 2호 관광객들은 이날 오후 6시까지 하루 일정으로 제주를 관광한 후 다음 목적지인 홍콩으로 떠난다. 2019.03.02. woo1223@newsis.com【제주=뉴시스】강정만 기자 = 제주특별자치도는 지역 특성과 지역 자원을 활용한 융·복합 콘텐츠를 다양화하는 지역관광 활성화 시책을 본격추진한다고 5일 밝혔다. 도는 이를 위해 지난해까지 농촌마을 위주로 추진했던 대나무 줄낚시, 바릇잡이체험, 스노쿨링체험, 천연염색체험, 양 먹이주기 등 농어촌마을 휴양 체험형 관광상품을 어촌마을까지 확대·시행한다. 또 생태관광 등 체험여행 프로그램인 에코파티 개최 등으로 약초, 도토리칼국수, 감귤과즐, 개복숭아청, 감입차, 통밀가루, 비자오일 등  마을 생산 상품 연계 지원을 강화하고, 마을 콘텐츠와 지역관광 상품 홍보 마케팅을 적극 펼친다. 이와 함께 지역(마을) 관광을 선도할 전문가 양성을 위해 지역관광 스토리텔러 양성, 지역여행기획가 양성 과정 등을 운영한다. 이밖에도 주민 주도의 관광상품 운영, 이해도 향상 등 주민 역량을 강화하고 글로벌 관광시장 변화 추세에 부응하는 지역관광 활성화 여건 조성을 위해 지역관광 국제포럼, 전문가 토론회, 지역관광 홍보캠페인 등을 전개한다. 도는 지역관광 활성화 시책 추진을 위해 현재 도와 관광공사, 관광협회 등 유관기관이 산발적으로 추진하는 사업들을 도 관광국 중심으로 재편하기로 했다. 문경복 도 관광정책과장은 "마을 자원을 활용한 관광상품 발굴에 노력해 관광소득이 지역주민들에게 연결되는 선순환 구조를 만들어가는데 중점을 두고 이 정책을 추진하겠다"고 밝혔다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 울산시교육청, 사립유치원 42개원 종합 지도·점검 창원시, 150억 규모 동읍 농촌중심지 활성화 사업 추진 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 울산시교육청, 사립유치원 42개원 종합 지도·점검 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 6軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도-제주관광공사, 2019년 제주출발 크루즈상품 홍보 지원 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도-제주관광공사, 2019년 제주출발 크루즈상품 홍보 지원 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도-제주관광공사, 2019년 제주출발 크루즈상품 홍보 지원 송고시간2019-03-06 10:46 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 변지철 기자 기자 페이지 (제주=연합뉴스) 변지철 기자 = 제주지역 크루즈관광 활성화와 시장 다변화를 위해 2019년 제주발 크루즈 관광상품에 대한 홍보비가 지원된다. 제주 민군복합항 첫 크루즈 입항 [연합뉴스 자료사진] 제주도와 제주관광공사(JTO)는 제주로 기항하는 중국 외 크루즈선 중 제주에서 관광객을 승선시키는 크루즈 상품에 대해 도내 업계를 대상으로 홍보비를 지원한다고 6일 밝혔다. 이 사업은 최소 10명 이상의 승객을 모객해 운영하는 크루즈상품에 대해 1차례 운영 시 최대 300만원의 실비 광고비를 지원하며, 2차례 이상 운영의 경우 동일업체에 최대 500만원의 광고비를 지원한다. 광고 도와 제주관광공사는 올해 3월부터 11월까지 광광상품 홍보비를 지원한다. 제주관광공사는 이번 사업을 통해 크루즈 관광을 활성화하고, 제주가 단순한 크루즈 기항지가 아닌 준모항지로 발돋움할 기회가 될 것으로 기대하고 있다. bjc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2019/03/06 10:46 송고 #제주관광공사 #제주도 #크루즈관광 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 러시아 출신 억만장자 벤처투자자, 전쟁 반대하며 시민권 포기 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 선우은숙, 4살 연하 아나운서 유영재와 재혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 유병호, 문자 논란에 "송구…그 소통은 정상적인 것" 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 22 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 北전술핵 과시·野친일공세에…대통령실 "동북아 안보현실 엄중"(종합2보) 댓글수 9 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>효리의단골집 제주도 중문 관광단지 맛집 줄서서 먹는 갈치조림 ‘이조은식당’ - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>제주도, 관광수용태세 혁신 담은 관광진흥계획 발표 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 관광수용태세 혁신 담은 관광진흥계획 발표 등록 2019.03.05 10:18:02 작게 크게 【서귀포=뉴시스】우장호 기자 = 2일 오전 제주 서귀포시 강정동 제주민군복합형관광미항에 영국 국적의 초호화 크루즈선 '퀸 메리(Queen Mary)2호'가 관광객 2400여명을 태우고 입항한 가운데 관광버스가 승객을 태우기 위해 대기하고 있다.퀸메리 2호 관광객들은 이날 오후 6시까지 하루 일정으로 제주를 관광한 후 다음 목적지인 홍콩으로 떠난다. 2019.03.02. woo1223@newsis.com【제주=뉴시스】강정만 기자 = 제주특별자치도는 관광수용태세의 개선과 혁신 등의 내용을 담아 올해부터 2023년까지 추진하는 '제3차 제주특별자치도 관광진흥계획'을 5일 발표했다. 이 계획은 5대 목표를 기반으로 141개 세부과제로 구성됐다. '관광수용 태세의 개선과 혁신' 분야에서는 온라인 홍보와 마케팅 역량강화, 과잉공급 숙박업의 대응대책, 할랄푸드 도입, 관광약자를 위한 관광지 환경개선, 허브공항과 항만으로서의 접근성 강화를, '청정환경의 지속가능성' 분야에서는 주민주도의 문화관광육성, 제주형 브랜드공연 제작, 트램 타당성 검토 등이 담겼다. '지식기반의 마케팅 체계 및 경쟁력 강화' 분야에서는 해외항공사 유치로 직항노선 확대, 제주관광 브랜드 개발 등이, '고부가가치 청정휴양 관광상품 개발과 수익증대' 분야에서는 제주형 생태관광 글로벌 허브밸리 구축, MICE 복합시설 확충, 제주형 웰니스 관광지원센터 구성 등이 들어갔다. '관광진흥 가치 재정립' 분야에서는 송객수수료와 카지노업 제도개선, 면세특례제도 확대, 숙박업 과잉공급 규제, 골프장 개별소비세 특례적용 기한 연장 등이 포함됐다. 이 계획은 제주관광학회(회장 신왕근)가 용역을 수행했다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 울산시교육청, 사립유치원 42개원 종합 지도·점검 창원시, 150억 규모 동읍 농촌중심지 활성화 사업 추진 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 울산시교육청, 사립유치원 42개원 종합 지도·점검 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 6軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도관광협회 사랑나눔봉사단, 광역푸드뱅크에 후원금 기탁 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회 사랑나눔봉사단, 광역푸드뱅크에 후원금 기탁 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 제주도관광협회 사랑나눔봉사단, 광역푸드뱅크에 후원금 기탁 편집팀 iheadline@hanmail.net 승인 2019.03.23 11:29 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회 사랑나눔봉사단(회장 김영진)은 22일 제주도사회복지협의회에서 운영하는'광역푸드뱅크'를 찾아 어려운 이웃들을 위해 써 달라며 후원금 200만원을 기탁했다.이날 전달된 후원금은 푸드마켓을 이용하는 저소득층 어르신 등에게 지원될 예정이다.사랑나눔봉사단은 정기적으로 지역내 불우이웃, 독거노인 등 소외계층을 대상으로 불우이웃성금, 하우스케어, 물품지원, 김장김치 전달 등 다양한 나눔 활동을 펼치고 있다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>봄 만끽하는 제주도, 중문 관광단지 맛집 '국수바다본점'에서 제주의 맛 즐긴다 봄 만끽하는 제주도, 중문 관광단지 맛집 '국수바다본점'에서 제주의 맛 즐긴다 : 스포츠조선 뉴스 최신뉴스 카드뉴스 PDF 보기 포토 펀펌 스포츠 야구 축구 농구 배구 골프 학교체육 연예 SC초점 SC이슈 SC현장 라이프 여행레저 헬스케어 Family Site 청룡영화상 청룡시리즈어워즈 조선일보 와이즈토토 야구 축구 종합 연예 라이프 포토 만화 운세 Diva 운세의신 달리고 펀펌 생활 봄 만끽하는 제주도, 중문 관광단지 맛집 '국수바다본점'에서 제주의 맛 즐긴다 기사입력 2019-03-13 09:44:37 실제로 제주는 다양한 볼거리와 즐길 거리가 가득한 섬으로 국내는 물론 해외 관광객들에게도 꾸준히 사랑받고 있다. 특히 3월에는 날씨가 따뜻해지면서 각종 축제가 예정되어 있어 더욱 활기찬 제주를 느낄 수 있다.이맘 때쯤이면 제주에는 샛노란 바다가 물결친다. 바로 유채꽃이 한창이기 때문이다. 추위에 강한 유채는 초봄부터 늦봄까지 즐길 수 있으며 산방산 주변, 성산의 유채꽃재배단지, 한담해변의 산책로에 유채꽃을 만날 수 있다. 유채꽃이 피어있는 곳곳에는 사진을 찍는 관광객들을 쉽게 찾아볼 수 있다. 이와함께 3월에는 제주들불축제가 개최된다. 중산간 초지의 해묵은 풀과 해충을 없애기 위해 불을 놓는 '방애'라는 제주 풍습을 현대화하여 발전시킨 제주들불축제는 올해 22회째를 맞이했다. 특히 오름불 놓기 행사는 오름 전체가 불타오르는 장관을 볼 수 있어 관광객들의 눈길을 사로잡기에 충분하다.제주 먹거리도 빼놓을 수 없다. 제주도의 고기국수는 삶은 밀가루 중면에 돼지뼈로 우린 뽀얀 육수를 넣고 수육을 올려 먹는 제주도의 향토 음식이다. 담백하면서 깔끔한 맛으로 남녀노소 누구나 사랑할 수밖에 없는 맛이다. 제주도에 갔다면 중문관광단지 입구에 자리한 '국수바다본점'에서 맛있는 고기국수 한 그릇은 필수이다.지난해 10월 생방송오늘저녁 '국수의신(국수삼총사)'에 출연한 이 곳은 이미 제주에서는 서귀포 중문에 가면 꼭 한번 들러야 할 중문관광단지 맛집으로 유명하다. 현지인들도 많이 찾는 곳으로 언제나 손님들로 인산인해를 이룬다.주 메뉴는 고기국수, 회국수, 성게전복국수 등 국수삼총사로 깊은 국물에서 제주의 맛을 고스란히 느낄 수 있다. 국수삼총사와 함께 몸국과 성게 국밥도 빼놓을 수 없는 별미 중의 별미이다. 몸국과 성게국밥은 포장이 가능해 제주의 바다를 즐기면서 먹는 중문 맛집이다.국수바다본점 관계자는 "아침식사가 가능하기 때문에 중문관광 전 든든한 아침을 먹기에 제격으로 많은 관광객들이 아침식사를 하러 방문한다"며 "100명 정도 수용이 가능한 대형식당으로 깔끔하고 정갈한 음식만을 제공하기 위해 노력하고 있다"고 전했다. 톱배우 충격 근황..파킨슨병으로 불편한 모습 “온몸 두들겨 맞는듯한 한해 보내” 김지민 “쌍둥이 임신해서 ♥김준호와 결혼한다고”→박미선 “떠밀려 결혼하지 마” '부모 빚투' 마이크로닷, '닭발집' 앞에서 근황을? 코 수술·뮤비 촬영 위해 귀국 '뺑소니' 조형기, 방송가 사라진 후 “美 필라델피아서 자주 목격” 박미선·김용만 불화로 갈등..“좋은 사람 아닌 것 같아” 연예 많이본뉴스 1.신화 신혜성, 도난차량서 음주측정 거부하다가 체포 2.마돈나, 41세 연하남과 열애 부담됐나? 급기야 성형의혹까지 3.'결혼지옥' 73세 아내 "79세 남편 세 번의 외도"..오은영 "배우자 외도 치명상" [SC리뷰] 4.김태희, '♥비 골프선수 불륜설' 극복..'하이바이, 마마' 향한 끈끈한 우정 5."최초공개" 오상진♥김소영, 이름도 비밀이었던 딸+집안 내부 [종합] ('동상이몽2') 스포츠 많이본뉴스 1.트레이드 실패? 이대호의 '아픈 손가락'…천재 유격수 향한 '의미심장' 마지막 당부 [SC포커스] 2."나는 게이다" 후폭풍…카시야스, 팔로워 300만 빠졌다 3.'55세 225일' 日축구영웅의 노욕, 팬들도 질렸다 "미우라를 월드컵으로!" 4.'너무 망가져 보인다' 눈물 참는 명장, 고통 받는 충격 근황 5.'괴물' 데려온 伊 에이전트 "나폴리에 1년 전부터 김민재 제안" 스포츠조선 회사소개 광고/제휴문의 사진대여 신문구독신청 개인정보처리방침 청소년보호정책 조선일보 와이즈토토 청룡영화상 등록번호 : 서울 아01720 등록일자 : 2011년 7월 29일 발행일자 : 2000년 11월 1일 주소 : 서울 양천구 목동동로 233-1 전화번호 :02-3219-8114 발행인 : 이성관 편집인 : 신보순 청소년보호책임자 : 이재훈 RSS PDF Copyright (c) SPORTSCHOSUN.COM All rights reserved.</t>
+  </si>
+  <si>
+    <t>'미세먼지' 마스크 쓰고 관광하는 제주도 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 하단 메뉴 바로가기 국가기간뉴스통신사 연합뉴스 배너 검색 영역 뉴스, 포토, 영상, 그래픽을 검색하실 수 있습니다. GO 비주얼 뉴스홈 영상 영상홈 영상뉴스 사건재구성 한반도N 많이본영상 날짜별영상 포토 포토홈 정치 북한 경제 산업 사회 전국 세계 문화 연예 스포츠 모멘트 화보 #D 그래픽 검색 열기 검색 닫기 포토홈 '미세먼지' 마스크 쓰고 관광하는 제주도 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 김주형 기자 기자 페이지 (서귀포=연합뉴스) 제주에 처음으로 미세먼지 비상저감조치가 내려진 5일 유명 관광지인 제주 서귀포시 성산 일출봉을 찾은 관광객들이 마스크를 착용하고 있다. 2019.3.5 [독자제공] photo@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2019/03/05 13:08 송고 #제주도 #비상저감조치 #성산일출봉 #미세먼지 #관광객 #마스크 '감사원 국감, 시작 9분만에 파행'…비어있는 의원석 10-11 10:45 '깊어가는 가을'…안산 갈대습지공원 10-11 12:02 '오늘부터 개량백신 접종 시작'…60세미만도 잔여백신 접종가능 10-11 09:57 '가을 위에 내려앉은 겨울'…태백 만항재 10-11 10:22 후나코시 다케히로 日 외무성 국장, 한일국장급협의 참석 10-11 10:29 댓글쓰기 맨위로 전체메뉴 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 사람들 인사 부고 동정 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 이슈돋보기 주요신문톱뉴스/사설 이 시각 헤드라인 날씨/재난 날씨 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이 본 뉴스 모바일 뉴스 모바일앱 모바일웹 비주얼뉴스 #흥 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷 맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 유튜브 연합뉴스 통통컬처 Korea Now 한반도N 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로2길 25 | 등록번호 문화, 나00009 | 등록일자 1980.12.29 | 발행일자 1980.12.29 | Tel. 02-398-3114 (C) Yonhapnews [대표이사] 성기홍 [편집인] 조채희 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 카카오스토리 서비스안내 전체보기 서비스안내 전체보기 닫기 연합뉴스 연합뉴스TV 인포맥스</t>
+  </si>
+  <si>
+    <t>[제주도 첫 영리병원 허가 취소] 첫 발도 못뗀 녹지병원…제주의료관광단지 조성도 '삐걱' : 서울경제 주 메뉴 바로가기 본문내용 바로가기 시그널 디센터 라이프점프 서울경제TV 미주한국일보 서울경제골프 전종목시세 e-Paper 구독안내 마이페이지 로그인 이전 다음 전체메뉴 검색 전체메뉴 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 사회 사회일반 전국 사회이슈 피플 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 오피니언 사설 사내칼럼 사외칼럼 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 영상 · 포토 영상 포토 서경 TV·방송 영화 가요 포토 검색 닫기 검색 #송현동 부지, 시민 품으로 #취득세 쇼크 #가장 쎈 독감 온다 #여가부 폐지 #벼랑 끝 이준석 #눈 먼 돈 된 태양광 대출 #실외 마스크 전면 해제 #노벨상 #김정은 딸 김주애 #어썸머니 닫기 전체서비스 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 사회 사회일반 전국 사회이슈 피플 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 오피니언 사설 사내칼럼 사외칼럼 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 영상 · 포토 영상 포토 카드뉴스 서경스타 TV·방송 영화 가요 포토 회사소개 회사소개 CEO 인사말 서울경제가 걸어온 길 행사 및 시상 약도 및 연락처 업무문의 구독안내 광고안내 이용안내 개인정보취급방침 이용약관 청소년 보호정책 고충처리인 제보 이메일 뉴스레터 텔레그램 뉴스채널 소식 공지사항 이벤트 알립니다 스페셜 컨텐츠 All Headline Awesome Money 기자채널 이슈 연재 e-Paper 뉴스아카이브 전체기사 스타즈 클럽 백상경제연구원 아웃링크 서경골프 이달의과학기술인상 서울포럼 존경받는 기업·기업인 대상 구독 l Subscription 구독신청 이용약관과 개인정보취급방침을 읽었으며, 이에 동의합니다. (필수) 이메일을 통한 서울경제의 서비스 및 이벤트 정보 수신에 동의합니다. (선택) 팝업창 닫기 공유하기 facebook twitter kakao email 복사 이메일보내기 라이프 urlhttps://www.sedaily.com/NewsView/1VGGK9XCB7 보내는 사람 받는 사람 ※ 여러명에게 보낼 경우 콤마(,)로 구분하세요. 확인 취소 홈 문화 · 스포츠 라이프 [제주도 첫 영리병원 허가 취소] 첫 발도 못뗀 녹지병원…제주의료관광단지 조성도 '삐걱' 입력2019-03-04 17:25:28 수정 2019.03.05 09:12:29 임웅재 기자 facebook 공유 twitter kakao email 복사 뉴스듣기 가 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 기사저장 저장된기사목록 기사프린트 의료법서 정한 개원 시한 넘기며 허가 취소 청문 돌입…한달 걸려 道 "외국인으로 진료 제한 합당" 녹지 "복지부선 내국인도 허용" 패소땐 투자금 회수 손배소 할듯 viewer 제주도가 녹지국제병원의 인가취소를 위한 청문절차에 돌입한다고 밝힌 4일 제주도청 앞에서 한국노총이 기자회견을 열고 제주 영리병원 철회를 촉구하는 구호를 외치고 있다. /연합뉴스제주도가 결국 외국 의료기관 개설 허가 취소를 위한 청문절차에 돌입하면서 국내 첫 영리병원 개설허가를 받은 제주 녹지국제병원의 운명은 법원에서 판가름나게 됐다. 관광객 감소로 고민 중인 제주도가 차세대 성장동력으로 내걸었던 제주의료관광단지 조성에도 차질이 불가피할 것이라는 관측이 나온다.의료업계에서는 녹지국제병원 측이 일단 개원한 뒤 경영이 악화되면 진료 대상이나 영역 확대를 요청할 가능성이 크다는 전망도 나왔지만 빗나갔다. 녹지 측은 병원 문을 열지 않고 내국인 진료를 허용하라는 취지의 법원 판결을 기대하거나, 소송에서 질 경우 제주도를 상대로 손해배상청구 소송을 통해 투자비를 회수하는 방안 등을 선택한 것으로 보인다. 녹지그룹이 병원사업을 철회하면 800억원에 이르는 투자금을 손해배상 명목으로 청구하는 소송을 진행할 수 있다.도는 청문을 통해 녹지국제병원의 사업자인 녹지그룹 측의 입장을 듣고 합당한지를 따진 뒤 최종적으로 허가 취소 여부를 결정할 방침이다. 도는 5일부터 청문이 시작되면 한 달 정도 뒤에 모든 과정이 끝날 것으로 예상했다. 청문과정의 핵심 쟁점은 ‘외국인만 대상으로 한 조건부 개설허가’, 다시 말해 내국인 진료를 못하게 하는 게 적법하고 적절한가 여부다. 도는 외국인 전용 영리병원으로 개원하는 점에 대해 중앙부처인 보건복지부에 의견을 구했고, 승인 허가도 외국인 전용으로 났기 때문에 별다른 문제가 없는 것으로 판단하고 있다. 반면 내국인의 건강보험 비급여 진료까지 막는 것은 문제가 있다는 견해도 있다. 제주특별법 등에 따르면 ‘외국 의료기관과 외국인 전용 약국에 대해 이 법에 정하지 않은 사항은 의료법과 약사법을 준용한다’고만 돼 있어 뚜렷한 사유 없이 내국인 진료를 막기 힘들다는 시각도 적지 않다. 녹지 측도 “2015년에는 복지부가 내국인 진료도 가능하다고 했는데, 이제 와서 진료대상을 외국인으로 제한한 것은 근거가 없다”고 주장해왔다. 내국인 진료에 대해서도 시민사회단체 등의 반발이 거세다. 보건의료산업노조, 경제정의실천시민연합, 참여연대, 민주노총 등이 참여한 ‘제주영리병원 철회 및 의료민영화 저지 범국민운동본부’는 이날 성명에서 “녹지국제병원 허용은 국민의 생명과 건강이 한낱 재벌과 자본의 돈벌이 수단으로 치부되는 의료 민영화·영리화 대재앙의 시작”이라며 “영리병원의 전국적 확산은 대한민국 의료체계의 근간을 흔들 만큼 치명적이고 위험하다”고 경고했다.오는 11일로 예정된 ‘녹지국제병원 사업계획서’ 공개도 병원의 앞날을 예측하는 가늠자가 될 것으로 보인다. 제주도는 이 날을 법인정보 자료를 제외한 ‘녹지국제병원 사업계획서’의 정보공개일로 확정했다. 녹지그룹은 2015년 12월 보건복지부로부터 녹지국제병원 사업계획서를 승인받은 이후 사업계획서 비공개 방침을 견지해 왔다. 도 관계자는 “병원 사업계획서 공개일이 결정됐으나 그 전에 녹지 측이 정보공개에 반대해 행정심판이나 행정소송을 제기하면 사업계획서 공개 절차가 연기되며 공개 여부도 소송 결과에 따라 최종 결정될 것”이라고 말했다. 녹지국제병원의 개원이 무산되면 의료관광시설이 주축인 제주헬스케어타운 사업에도 제동이 걸릴 전망이다. 병원이 없는 의료관광단지는 사업 추진의 명분을 상실할 수밖에 없어 사업 무산의 가능성도 커지고 있다. 앞서 제주국제자유도시개발센터(JDC)는 지난 2008년 서귀포시 동홍동과 토평동 일원 153만9339㎡ 용지에 의료시설과 숙박시설 등을 조성하는 내용의 제주헬스케어타운 사업에 착수한 바 있다. /임웅재선임기자 jaelim@sedaily.com &lt; 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지 &gt; ※ 본 사이트에 게재되는 정보는 오류 및 지연이 있을 수 있으며, 그 이용에 따르는 책임은 이용자 본인에게 있습니다. 오늘의 핫토픽 # 송현동 부지, 시민 품으로 # 취득세 쇼크 # 가장 쎈 독감 온다 # 여가부 폐지 # 벼랑 끝 이준석 오늘의 이슈 #이준석 추가 징계 나경원 "국민의힘 지지층 7주 연속 1등은 나" #국감 초점 박홍근 “감사원, 前정부인사 민간인 시절기록 사찰…공수처 고발할 것” #감사원 '文 서면조사' 논란 박홍근 “감사원, 前정부인사 민간인 시절기록 사찰…공수처 고발할 것” #마약민국 묻지마 폭행하고 "마약 했다"는 남성…경찰이 돌려보냈다 #尹, 비속어 논란 홍준표, 또 유승민 직격…"배신 경력 있는 사람은 가라" 이시간 주요 뉴스 영상 뉴스 '컴백홈' 지금의 날 만들어 준 고향, 구수하고 정겹다 도로 위 '모세의 기적'…경찰·택시기사, 환자 생명 구했다 한미, 北 대응 사격중 미사일 오발…강릉서 '폭발 화재' 넷상 초밀착 웹드라마 '밈의 생활화', 손우민♥김도림 커플 싸움 직관…결말은? "인도네시아 축구장 난동으로 최소 129명 사망"…무슨일 인기 포토 뉴진스 목격! 든든하軍 심장에 한 발! 양조위의 화양연화 샤넬♥제니 저항하라 부산 찾은 스타들 프로스트! 오늘의 연재 한입뉴스 CU×미래에셋페이 ‘편털’ 이벤트 진짜 ‘편털’에 조기종료[한입뉴스] 주식 초고수는 지금 저가 매수 나선 개미들…삼성전자·NAVER 줍줍 뒷북비즈 4C 덫에 걸린 K반도체…“국가대항전서 낙오될 수도” [뒷북비즈] 인더뷰 대리·과장부터 임원까지 '3조' 채용 시장 노리는 리멤버[인더뷰] 서경 디지털 38개의 포토 든든하軍 23개의 포토 양조위의 화양연화 18개의 포토 저항하라 76개의 포토 샤넬♥제니 EBITDA 마진율 회계기준에 따른 차이를 제거한 현금기준 실질 수익성 판단 지표로, 매출을 통해 어느정도의 현금이익을 창출 했는가를 의미한다. 즉, EBITDA마진율은 매출액 대비 현금창출능력으로 볼 수 있으며, 일반적으로 마진율이 높을수록 기업의 수익성이 좋다고 판단할 수 있다. EBITDA마진율 = (EBITDA ÷ 매출액)*100% 1. 코주부 코인, 주식, 부동산 투자 정보만 쏙쏙! 코주부와 성투해요. 2. 지구 나랑 상관 있는 친환경 뉴스. 매주 화·목요일에 만나요. 3. Daily Brief 매일 아침, 데일리브리프가 핵심 경제 뉴스를 전해드립니다. 4. 연재기사 서울경제의 모든 연재기사를 메일함에서 받아보실 수 있습니다. 5. 스타기자 서울경제의 스타기자를 구독하세요. 기사가 출고되면 이메일로 알려드려요. 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 오피니언 사설 사내칼럼 사외칼럼 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 사회 사회일반 전국 사회이슈 피플 영상 · 포토 영상 포토 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 서경스타 TV·방송 영화 가요 포토 공지 [알립니다] 서울경제 개인정보취급방침 변경 공지 회사소개 광고안내 개인정보취급방침 이용약관 청소년보호정책 제보 고충처리인 초판보기 전체기사 뉴스아카이브 관련사이트 미주한국일보 서울경제TV 시그널 레이디스클래식 디센터 라이프점프 더폴리틱스 서울경제골프 백상경제연구원 이달의 과학기술인상 서울포럼 주소 : 서울특별시 종로구 율곡로 6 트윈트리타워 B동 14~16층 대표전화 : 02) 724-8600 상호 : 서울경제신문사업자번호 : 208-81-10310대표자 : 이종환등록번호 : 서울 가 00224등록일자 : 1988.05.13발행 ·편집인 : 이종환 인터넷신문 등록번호 : 서울 아04065 등록일자 : 2016.04.26발행일자 : 2016.04.01 서울경제의 모든 콘텐트는 저작권법의 보호를 받는 바, 무단 전재·복사·배포 등은 법적 제재를 받을 수 있습니다. Copyright ⓒ Sedaily, All right reserved 서울경제를 팔로우하세요! 서울경제신문 텔레그램 뉴스채널 서울경제 어썸머니 모바일 버전 보기</t>
+  </si>
+  <si>
+    <t>효리의단골집 제주도 중문 관광단지 맛집 ‘이조은식당’ 제주 은갈치를 오롯이 즐길 갈치정식 인기 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>제주도, 지역주민 주도 ‘지역관광 활성화’ 사업 본격 추진-국민일보 시사 시사 &gt; 전체기사 제주도, 지역주민 주도 ‘지역관광 활성화’ 사업 본격 추진 마을자원 활용한 콘텐츠 개발·다양화, 지역소득 향상 기대 입력 : 2019-03-07 15:21 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 지난해 제주 한남리에서 진행된 에코파티 모습(제주도 제공)제주도가 지역주민이 주도하는 ‘지역관광 활성화’ 사업을 본격적으로 추진한다.제주도는 지역의 문화·역사 등 지역특성과 향토자원을 활용한 융·복합 콘텐츠를 다양화하기 위해 농촌마을 위주로 추진돼 온 휴양 체험형 관광상품을 어촌마을까지 확대해 시행한다고 7일 밝혔다.도는 또 에코파티를 지속적으로 육성해 마을 생산상품(약초·도토리칼국수·개복숭아청·감입차·비자오일 등)에 대한 연계 지원을 강화할 계획이다.2016년 시작된 에코파티는 관광객들을 제주 곳곳의 마을로 초대해 자연·생태·문화·로컬푸드·주민해설 등 색다른 여행경험을 체험하게 하는 농어촌체험 여행 프로그램이다.도는 이와함께 마을 관광을 선도할 전문가 양성을 위해 지역관광 스토리텔러(30명) 및 지역여행기획가(30명) 양성과정도 마련한다.이밖에 주민주도형 관광상품 운영을 통해 마을소득 향상에 기여하고, 관광시장 변화에 부응하는 지역 관광여건을 조성하기 위해 국제포럼, 전문가 토론회, 홍보캠페인 등도 전개한다.현재 도(22개)와 관광공사(9개), 관광협회(1개) 등 유관기관으로 분산돼 산발적으로 추진되는 총 32개 사업들 역시 도 관광국 중심으로 재편할 방침이다.양기철 도 관광국장은 “마을자원을 활용한 관광상품 발굴에 주력해 관광소득이 지역주민들에게 연결되는 선순환 구조를 만들어 나가겠다”며 “올해 우수관광 벤처기업을 10개로 확대·육성해 관광비즈니스 모델 발굴, 후속지원 등을 통한 안정적인 관광산업 생태계 조성에 힘쓰겠다”고 말했다.제주=주미령 기자 lalijoo@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 박수홍, 父폭행 직후 녹화서 “제가 속병 전문가” 넉살 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 포항시, 자연재난 피해 공동주택 복구비용 최대 5억원 지원 성 상납 무고 혐의 이준석, 2차 경찰 소환… 경찰 “조만간 결론” 포천시, 신재생에너지 융복합지원사업 공모 선정 특별법 개정 “너무 느리다”…제주도, 포괄적 권한이양 추진 남양주시 ‘불법 주정차 단속 CCTV 통합 시스템’ 운영 의정부서 14~16일 ‘2022 아시아 모델 페스티벌’ 열려 경남도, 가을 행락 철 야영 장 인명 사고 예방 총력 올 무역적자 327억 달러…반도체·대중 수출 ‘먹구름’ 아시아엔 적수 없다… 韓펜싱 U-23 亞선수권 7연속 우승 이동환 고양시장 “일산, 신도시 선도지역 지정 조건 가장 좋아” 4조원대 인천e음 대행사 코나아이·신한·KT…3파전 치열 ‘지적장애인 살인·암매장’ 일당, 판결 불복해 항소 감사원 국감, “착하게 좀 살라” 말폭탄 속 9분만에 중지 스물네살 미드필더 음웨푸, 은퇴 선언… ‘유전성 심장 질환’이 원인 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야”</t>
+  </si>
+  <si>
+    <t>“제주도, 외국인 관광객 인지도 상승” - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 “제주도, 외국인 관광객 인지도 상승” 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 “제주도, 외국인 관광객 인지도 상승” 문유미 기자 승인 2019.03.20 17:12 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주도에 대한 외국인 관광객들의 인지도가 상승한 것으로 나타났다. 문화체육관광부와 한국관광공사가 20일 발표한 ‘2018 한국관광 브랜드 마케팅 커뮤니케이션 효과조사’에 따르면 외국인 1만2000명을 대상으로 설문조사 실시 결과 지난해 한국관광 인지도는 57.9%로 전년 대비 1.4%p 상승했다. 한국관광에 대한 선호도 역시 59.5%로 전년 대비 1.2%p 오르며 인지도·선호도 모두 5년 연속으로 상승했다. 특히 한국을 관광목적지로 떠올릴 때 생각나는 지역으로 제주를 선택한 비율이 31.5%로 전년보다 6.4%p 상승하며 전국 3위를 차지했다. 반면 1·2위를 차지하고 있는 서울·부산을 선택한 비율은 각각 61.4%, 34.3%로 전년 대비 각각 6.0%p, 1.6%p 줄어들었다. 문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도, 매경골프엑스포 참가 골프관광객 유치활동 전개 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 매경골프엑스포 참가 골프관광객 유치활동 전개 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 매경골프엑스포 참가 골프관광객 유치활동 전개 기자명 고병수 기자 입력 2019.03.08 11:48 수정 2019.03.08 13:06 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 도내 골프장 6개 업체 공동 홍보마케팅 펼쳐 (제주=국제뉴스) 고병수 기자 = 제주도와 제주도관광협회는 7일부터 10일까지 4일간 서울 코엑스에서 개최되는 매경골프엑스포에 참가하여 제주골프 홍보관을 운영하고 있다고 8일 밝혔다.개별소비세 감면 제도의 폐지로 주춤하고 있는 도내 골프 업계의 상황을 타개하기 위해 우리들CC, 캐슬렉스CC, 제주CC, 오라CC, 라온GC, 및 롯데스카이힐CC 등 6개 골프장에서 직접 참여하여 특가 골프상품 및 회원권 판매 등 공격적인 현장마케팅을 펼치고 있다.더불어 홍보관을 찾은 관람객을 대상으로 소확행, 먹방, 체험 등 최신 트렌드에 맞는 제주여행 정보를 제공하고 제주여행 종합쇼핑몰 및 제주시티투어 홍보를 통해 제주여행 방법에 대한 선택의 폭을 넓히고 있다. 관계자는 "앞으로 제주도와 제주도관광협회는 2019 내나라여행박람회, K-Festival 2019 등 대형 박람회 및 이벤트에 참가해 내국인 관광객 유치 확대를 위한 지속적인 홍보마케팅을 펼칠 예정"이라고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>효리의단골집 제주도 중문 관광단지 맛집 ‘이조은식당’ 줄서서먹는 서귀포 갈치조림 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>효리네민박맛집 ‘그때그집 애월본점’, 관광객들이 찾는 제주도2박3일코스로 알려져 로그인 회원가입 UP2030 창업리그 일자리카페 청년리포트 스페셜 리포트 기업과 경제 산업 일반경제 거시경제 은행 보험 카드 서민 증권 건설·에너지 제약·바이오 생활경제 오피니언 전문가 칼럼 데스크 칼럼 기자수첩 사설 전국 네트워크 메트로 인천 수도권 충청 영남 호남 제주 뉴스 정치사회 글로벌 문화 연예 스포츠 AT미디어센터 포럼&amp;컨퍼런스 PDF 보기 2022년 10월 11일 Tuesday 로그인 ㅣ 회원가입 UP2030 창업리그 일자리 카페 청년 리포트 스페셜 리포트 기업과 경제 산업 일반경제 거시경제 은행 보험 카드 서민 증권 건설·에너지 제약·바이오 생활경제 오피니언 전문가 칼럼 데스크 칼럼 기자수첩 사설 전국 네트워크 메트로 인천 수도권 충청 영남 호남 제주 AT미디어센터 뉴스 정치사회 글로벌 문화 연예 스포츠 포럼&amp;컨퍼런스 PDF 지면보기 기사제보 공지.사고 UP2030 스페셜 리포트 기업과 경제 오피니언 전국네트워크 포럼&amp;컨퍼런스 PDF보기 AT미디어센터 포럼&amp;컨퍼런스 PDF보기 효리네민박맛집 ‘그때그집 애월본점’, 관광객들이 찾는 제주도2박3일코스로 알려져 이하나 입력 2019-03-07 11:48 수정 2019-03-06 11:48 (사진제공=그때그집 애월본점) [아시아타임즈=이하나 기자] 우리나라 최남단 최대의 섬 제주도는 다양한 볼거리와 액티비티, 먹거리로 유명한 대표적인 힐링 관광지로, 가족, 친구, 연인 등 다양한 단위의 관광객들이 방문하는 곳이다. 제주도는 좋은 추억을 만들 수 있는 제주도핫플레이스를 도처에서 찾아볼 수 있으며, 이국적이며 아름다운 해수욕장과 해변, 드라이브코스 등 다양한 관광지도 체험할 수 있다. 또한, 제주도는 다양한 특산 음식들이 맛볼 수 있는 관광지로도 유명한데, 제주도에서 꼭 먹어봐야 할 음식으로 제주 흑돼지가 있다. 이러한 흑돼지를 잘 하는 애월맛집으로 알려진 애월 그때그집은 관광객뿐만 아니라 많은 제주 현지인들의 맛집으로 여러 매체에 소개되고 있는 곳이다. ‘애월 그때그집’에서 판매하고 있는 흑돼지는 일반 돼지에 비해 깊은 풍미와 더불어 지방의 두께가 얇아 부드럽고 고소한 맛이 일품이다. 두툼하게 손질한 흑돼지를 그대로 초벌구이해 손님상에서 2차로 구워 제공하고 있다. 각종 SNS에 효리네민박맛집으로 소개된 바 있는 ‘애월 그때그집’에서는 제주 흑돼지 오겹살과, 목살을 흑돼지세트로 즐길 수 있고 200g의 단품메뉴로도 즐길 수 있다. 흑돼지세트는 2-3명이 먹기 적당한 양으로 제공되며, 주문 시 흑돼지김치찌개와 수제소시지, 왕새우가 함께 준비되어 푸짐한 제주도 만찬을 맛볼 수 있다. 또한, 점심시간에만 한정적으로 맛볼 수 있는 그때그집의 시그니처 메뉴인 흑돼지 김치찌개전골쌈은 합리적인 가격으로 즐길 수 있다. 양푼 냄비에 뽀얀 육수와 함께 두툼한 흑돼지, 팽이버섯, 새송이버섯, 두부, 떡국떡, 묵은김치 등이 푸짐하다. 메뉴를 주문하면 계란후라이와 라면사리, 공기밥까지 무한리필로 제공되기 때문에 가성비 높은 든든한 한 끼 식사를 할 수 있다. '애월그때그집' 관계자는 "제주도 흑돼지 맛을 제대로 보여드리기 위해 신선한 흑돼지고기를 매일 선별해 손질하고 있다. 지방질이 고루 분포되어 이어 씹을수록 고소하고 담백해 효리네민박맛집으로도 여러 매체에 소개된 바 있는 제주 흑돼지를 우리 제주도핫플레이스 '애월그때그집'에서 마음껏 만끽하시길 바란다"고 전했다. 제주시 애월읍에 위치한 애월 그때그집은 ‘도두 그때그집’과 함께 운영되고 있다. 이하나 편집국 다른기사 보기 asiatime@asiatime.co.kr [저작권자ⓒ 아시아타임즈. 무단전재-재배포 금지] - 띄어 쓰기를 포함하여 250자 이내로 써주세요. - 건전한 토론문화를 위해, 타인에게 불쾌감을 주는 욕설/비방/허위/명예훼손/도배 등의 댓글은 표시가 제한됩니다. 0 /250 등록 중요기사 [포토] “정부·여당 안전운임제 무력화 시도 좌시 않을 것” 코로나19 개량백신 접종 시작…"고위험군 접종 필수" [9월 항공실적] 성수기 지나자 해외여행객 ’뚝‘⋯국제선 8월 보다 14만명↓ [시승기] 아드레날린 '뿜뿜'…기아 'EV6 GT' [뒤끝토크] 5개월째 외친 항공 인력충원 요구⋯이젠 국회의 시간 "中 보고 있나"…K-배터리, 美 IRA·수입처 확대로 반격 타이밍 [포토] “정부·여당 안전운임제 무력화 시도 좌시 않을 것” [아시아타임즈=김영봉 기자] 민주노총 전국공공운수노동조합 화물연대본부(화물연대)가 11일 오전 서울 용산구 대통령 집무실 앞에서 '안전운임개악저지! 일몰제 폐지! 차종·품목확대! 화물연대 투쟁선포 기자회견'을 열고 총파업을 예고했다. 화물연대는 이날 "안전운임제 지속 및 품목확대에 대한 기존의 합의를 뒤집고 안전운임제를 폐지, 무력화 하려는 정부여당의 시도를 좌시 하지 않을 것"이라며 "이에 화물연대는 10월 22일 총파업 결의를 위한 조합원 비상총회를 개최하겠다"고 밝혔다. 국토교통부가 지난달 29일 민생안정경제특위에서 안전운임제가 시장경제원리에 반한다는 의견을 내면서다. 한편 '화물자동차 안전운임제'는 과로, 과속, 과적 운행을 방지하고 도로안전을 위해 필요한 최소한의 운임을 결정하는 제도다. 코로나19 개량백신 접종 시작…"고위험군 접종 필수" 코로나19 개량백신 접종 시작…예약한 날짜에 따라 진행 방역당국, 신규 백신인만큼 이상대응 체계 강화나서 전문가들 "신규 변이·재유행 등의 가능성 높아 접종 필요" [아시아타임즈=이재현 기자] 신종 코로나바이러스 감염증(코로나19) 개량백신 접종이 시작된다. 의학계에서는 면역저하자와 고령층 등 고위험군은 개량백신을 무조건 맞아야 한다고 강조했다. 11일 코로나19 예방접종추진단에 따르면 이날부터 모더나가 개발한 오미크론 BA.1 변이 기반 2가 백신을 활용한 동절기 코로나19 추가 접종이 시작된다. 이번 접종에 사용되는 개량백신은 코로나19 바이러스 초기주를 기반으로 개발된 기존 백신과 다르게 오미크론 변이 바이러스에도 대응이 가능하도록 개발됐다. 중앙방역대책본부는 개량백신은 기존백신 대비 초기주에는 1.22배, BA.1에 1.75배, BA.4와 BA.5에 1.69배 높은 중화능을 보였다. 중화능은 바이러스를 무력화해 감염을 예방하는 능력을 뜻한다. 지난달 27일부터 시작된 사전예약을 통해 예약한 사람은 이날부터 예약한 날짜에 따라 순차적으로 접종이 시작된다. 면역저하자, 요양병원·시설 등 감염취약시설 입원·입소·종사자, 60세 이상 고령층 등 건강취약계층이 우선 접종 대상이다. 18세 이상 60세 미만 기초접종 완료자도 잔여백신에 한해 개량백신 추가접종을 받을 수 있다. 사전예약 없이 당일 접종을 받으려면 의료기관에 유선으로 연락해 예비명단에 올려 당일 잔여 백신을 접종받을 수 있으며 카카오톡이나 네이버 등 소셜네트워크서비스(SNS)를 통한 잔여백신 확인·예약은 12일 오후 4시부터 가능하다. 방역당국은 개량백신이 새로운 백신인 점을 고려해 시행 초기에는 이상 반응에 더 적극적으로 대응하기로 했다. 접종자 중 문자 수신에 동의한 경우 접종 후 1주일간 능동감시를 통해 건강 상태와 일상생활 문제 여부 등을 확인하도록 하고 접종자 전원을 대상으로 접종 후 3일차 주의 사항과 이상반응시 조치 사항 등을 재안내할 계획이다. 또한 방역당국은 독감백신과 동시에 접종해도 된다고 밝혔다. 신규 변이·재유행 등 가능성 높아…고위험군 접종 필수 전문가들은 올 겨울에 코로나19이 재유행할 가능성이 높기 때문에 고위험군 접종이 필수라고 조언한다. 앞서 앤서니 파우치 국립알레르기·전염병연구소(NIAID) 소장은 미국 언론과의 인터뷰에서 올 겨울에 더 위험한 코로나19 변이가 출현할 수 있다고 경고했다. 미국 질병예방통제센터(CDC)가 발표한 데이터를 보면 지난주 보고된 환자의 79.2%는 오미크론 하위 변이인 BA.5에 감염됐다. 하지만 BA.5와 비슷한 시점에 출현한 BA.4에서 파생된 BA.4.6은 13.6%로 높아졌다. 이같이 기존에 유행하던 코로나에서 변이되거나 아예 새로운 변이가 발생될 가능성을 배제할 수 없다는 것. 국내 전문가들도 같은 의견을 내놓았다. 엄중식 가천대병원 감염내과 교수는 "올해 1분기에 겪었던 대규모 유행이 발생할 가능성은 줄었지만 작은 규모의 유행이 반복될 가능성이 높다"며 "코로나19가 풍토병이나 계절성 질환으로 바뀔 자리매김할 가능성이 높은 만큼 고위험층은 백신 접종이 필수"라고 강조했다. 한 의학계 관계자는 "2가 백신은 지금 유행하는 오미크론을 예방할 수 있기 때문에 효과적"이라며 "향후 어떠한 변이가 나올지는 모르지만 가장 유행하는 백신을 맞는 것이 효과적"이라고 설명했다. [9월 항공실적] 성수기 지나자 해외여행객 ’뚝‘⋯국제선 8월 보다 14만명↓ 9월 항공 여객 수 400만8362명⋯국내선 및 국제선 여객 수 전월 대비 모두 감소 국제선 여객 수는 121만4867명으로 8월 135만4803명 보다 10.3%↓ 성수기 지난 데다 환율 상승 등이 국제선 여객 수 감소에 영향 [아시아타임즈=김영봉 기자] 여름휴가철이 지나자 9월 해외여행객 수요가 전월 대비 10% 감소한 것으로 나타났다. 9월 입국 전 PCR검사 의무화가 폐지되며 국제선 여객 수요를 끌어 올릴 것으로 전망했지만 효과가 크지 않은 것이다. 휴가시즌이 지난 데다 높은 환율 등이 상승세를 꺾은 것으로 분석된다. 10일 아시아타임즈가 국토교통부 항공정보포털시스템의 9월 항공사별 운송실적을 분석한 결과 대한항공과 아시아나항공, 제주항공, 진에어, 티웨이항공, 에어부산, 에어서울, 에어로케이, 플라이강원, 에어프레미아 등 10개 항공사의 여객 수는 400만8362명(국내/국제 포함)으로 지난 8월 454만1753명 보다 11.7%(53만3391명) 감소했다. 이중 국내선 여객 수가 279만3495명으로 전월 318만6950명 보다 12.3%(39만3455명)감소했고, 국제선 여객 수는 121만4867명으로 한 달 전 135만4803명 보다 10.3%(13만9936명) 줄었다. 항공사별로 9월 여객수를 보면 대한항공은 102만8756명(49만5863명/53만2893명)으로 전월 109만8278명(56만9110명/52만9168명) 보다 6.3% 감소했다. 다만 국제선 여객 수는 국내 항공사 중 유일하게 전월 대비 0.7% 소폭 증가했다. 아시아나항공은 9월 여객 수가 72만8971명(39만3251명/33만5720명)으로 지난 달 80만767명(45만2737명/34만8030명) 보다 8.9%줄었다. 이중 국제선 여객 감소율은 3.5%로 나타났다. 저비용항공사(LCC)들도 여객 수가 전월대비 대부분 감소했다. 특히 국제선 여객 수는 코로나19 이후 처음으로 10만명을 돌파하며 상승세를 탔지만, 9월에는 감소세가 뚜렷했다. 제주항공은 9월 58만7543명(49만4272명/9만3271명)을 수송하며 8월 71만3305명(58만7562명/12만5743명) 대비 17.6% 줄었고, 국제선 여객 수는 한 달 사이 25.8% 급감했다. 이어 진에어는 56만2795명(49만2637명/7만158명)으로 전월 64만6063명(53만7725명/10만8338명) 보다 12.8% 감소했다. 국제선 여객 수는 35.2%나 줄었다. 티웨이항공은 49만3536명(40만280명/9만3256명)으로 지난달 50만9810명(39만788명/11만9022명) 보다 3.2% 줄었다. 이중 국제선 여객 수는 21.6% 감소했다. 에어부산과 에어서울의 여객 수도 모두 줄어들었다. 에어부산의 경우 9월 여객 수는 39만9230명(34만4554명/5만4676명)으로 전월 52만6057명(45만3333명/7만2724명) 24.1% 줄었고, 에어서울은 14만549명(11만5658명/2만4891명)으로 8월 16만2030명(12만328명/4만1702명) 보다 13.2% 감소했다. 이외 플라이강원은 9월 3만632명(2만9496명/1136명), 에어로케이는 2만7484명(국내선)을 수송했고, 국제선만 운항하는 에어프레미아는 8864명을 수송하는데 그쳤다. 항공업계 관계자는 “7월~8월 휴가철이 끝나고 9월은 원래 여객 수가 줄어드는 달”이라면서도 “입국 전 PCR 검사 의무화가 폐지되면서 국제선 여행객이 늘어날 것으로 봤는데 오히려 줄어든 것은 아쉬운 대목”이라고 말했다. 이 관계자는 “9월부터 환율이 높아진 영향도 있는 것 같다”면서 “10월은 연휴기간이 많고, 일본의 무비자 입국이 풀려 여행수요가 늘어날 것으로 기대하고 있다”고 덧붙였다. 한편 9월 총 여객 수는 전년 동월 296만3818명(253만583명/16만3235명)보다 48.7% 늘었고, 국제선 여객 수는 644.2% 급증했다. 전문가의 목소리 나하나 칼럼 워라밸이 가져온 예술의 대중화 정균화칼럼 Simple Living 박창진 칼럼 민생 위기 속 정치의 역할 김용훈 칼럼 국가재정의 전략적 운용 신문사소개 개인정보취급방침 이용약관 청소년보호정책 기사제보 제휴문의 공지.사고 서울특별시 중구 퇴계로31길 27 프라임빌딩 8층 대표전화 : 02-801-1800 FAX : 02-801-1819 제 호 : 아시아타임즈 정기간행물번호 : 서울 가 09927 등록일 : 2008-07-16 인터넷신문 : 서울 아 00624 발행인 대표이사 : 조용하 편집국장 : 송남석 청소년보호관리책임자 : 조주현 『열린보도원칙』 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 : 김재현 / TEL : 02-801-1842 / email : s891158@asiatime.co.kr 본 콘텐츠의 저작권은 아시아타임즈 또는 제공처에 있으며 이를 무단 이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. Copyright ⓒ 2019 아시아타임즈 All rights reserved. email : asiatimes@asiatime.co.kr HOME LOG IN Copyright ⓒ 2019 아시아타임즈 All rights reserved.</t>
+  </si>
+  <si>
+    <t>효리의단골집 서귀포갈치조림 먹으러 찾는 제주도 중문 관광단지 맛집 ‘이조은식당’ - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>효리의단골집 칼칼한 갈치조림으로 제주도 중문 관광단지 맛집 1위 ‘이조은식당’ - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 2019년도 제1차 자문위원회 회의 개최 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도관광협회, 2019년도 제1차 자문위원회 회의 개최 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도관광협회, 2019년도 제1차 자문위원회 회의 개최 문유미 기자 승인 2019.03.01 12:39 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도관광협회(회장 김영진)는 지난달 28일 제주종합비즈니스센터 대회의실에서 2019년도 제1차 자문위원회 회의를 개최했다. 이날 회의에서는 제주관광이 당면한 내국인 관광객 감소, 숙박업 공급과잉 등에 대한 의견 수렴과 함께 협회 소관 사업 추진방향에 대한 집중 논의가 이뤄졌다. 문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>3월 제주도 관광 추천 명소 ‘새별오름 제주 들불축제’ 맛집! 제주음식 별미한상차림 ‘탐라반상’ - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 3월 제주도 관광 추천 명소 ‘새별오름 제주 들불축제’ 맛집! 제주음식 별미한상차림 ‘탐라반상’ 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME LIFE in BIZ 3월 제주도 관광 추천 명소 ‘새별오름 제주 들불축제’ 맛집! 제주음식 별미한상차림 ‘탐라반상’ 김대일 승인 2019.03.07 10:36 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × (사진제공= 제주시 '탐라반상') 제주관광공사가 3월에 놓치지 말아야 할 제주관광추천 10선을 발표했다. 제주관광공사는 ‘봄날, 꽃길 그리고 제주의 화양연화’라는 주제로 제주도 내 관광지와 자연, 체험, 축제, 음식 등의 분야로 구성된 3월 제주 관광 추천 10선을 공개했다. 3월 제주 관광 추천 10선에는 ▲새별오름 제주들불축제, ▲유채꽃,,▲낙천리 아홉굿마을, ▲납읍리 난대림 지대 ‘금산공원’, ▲도두동 무지개 해안도로&amp;더럭초등학교, ▲아부오름, ▲소인국 테마파크, ▲객주리(쥐치) 등이 선정됐다. 이 중에서 새별오름 제주들불축제는 매년 30만 명이 찾을 정도로 인기가 많은 제주도의 대표적인 문화축제 중 하나로 1997년부터 매년 개최해 오고 있으며, 22회째를 맞는 올해는 3월 7일~10일까지 행사를 진행한다 제주들불축제는 중산간 초지의 해묵은 풀과 해충을 없애기 위해 불을 놓는 ‘방애’라는 제주 풍습을 현대화하여 발전시킨 행사로 타오르는 불에 새로운 희망을 담아 날려 보내보자는 염원을 담고 있다. 이번 들불축제는 삼성혈 부근과 새별오름에서 들불 불씨 봉송퍼레이드, 소원달집 만들기 및 태우기, 내 소원문구 레이저 쇼 등 다채로운 행사가 마련되며, 마치 들불이 난 것 같은 착각이 일 정도로 장관을 이루는 들불축제의 하이라이트 ‘오름불 놓기’는 셋째 날 진행된다. 새별오름 들불축제 주변 제주 서쪽 관광지는 카멜리아힐, 오설록 티 뮤지엄, 유리의성, 신화월드, 항공우주박물관, 송악산, 산방산, 중문관광단지, 서귀포올레시장 등이 가볼만한 관광지로 볼거리가 많다. 특히 새별오름에서 약 10km 거리에 위치한 유리의성 입구에는 제주 도민들의 단골식당 제주음식맛집 탐라반상’이 있다. (사진제공= 제주시 '탐라반상') 제주시 한경면에 위치한 ‘탐라반상’은 ‘제주도의 자연산 곡물, 채소, 과일, 생선 등으로 차려진 밥상’을 의미하며, 제주산 흑돼지부터 생물 생선, 로컬푸드, 녹차로 만든 디저트까지 제주도 여행 중 꼭 먹어 봐야할 다양한 제주음식들을 맛볼 수 있는 건강음식점이다. 제주의 맛과 음식으로 메뉴를 차별화시킨 ‘탐라반상’은 제주도에서만 만날 수 있는 자연 식재료를 이용한 이색적인 메뉴 구성으로 진심이라는 레시피로 정성이 담긴 요리를 언제나 늘 항상 변함없이 차려내는 제주도 건강뷔페이다. 신화월드 맛집 ‘탐라반상’은 제주도의 바다, 산, 오름, 땅이 길러낸 신선한 제철 식재료를 이용하여 제주 자연을 담은 제주음식 별미한상차림을 서비스하는 힐링 음식점으로 조미료, 첨가제, 인스턴트, 반조리음식, 중국산 식재료를 사용하지 않고, 푸드, 디저트, 브레드 등 모든 요리를 주인장의 특제 레시피로 직접 만들어 제공한다. 또한, 모든 요리에 들어가는 소스와 쌈장, 디저트, 음료, 베이킹 등도 주인장이 직접 연구, 개발하여 매일 새로운 요리를 맛볼 수 있다. 오설록 티 뮤지엄에 인근에 위치한 오설록 맛집 ‘탐라반상’은 제주도에서 흔하게 볼 수 있는 음식, 또는 자극적이고 기름진 메뉴에 식상한 미식가, 식도락 여행자 건강음식 매니어들에게 진정한 제주의 맛과 건강한 음식을 맛볼 수 있도록 제주도 향토음식을 웰빙 건강식으로 개발하여 제공하고 있다. ‘탐라반상’은 제주도민은 물론 관광객, 다양한 한국음식을 경험하고 싶은 외국인들도 자주 찾고 있으며, 비건, 채식주의자, 혹은 여행 중 식단관리를 해야 하는 부모님과 함께, 혹은 아이들과 함께 편안하게 식사를 할 수 있다. ‘탐라반상’은 제주영어교육도시 국제학교와도 약 5km 내외 거리로 제주국제학교 학부모들과 외국인 선생님들이 자주 찾는 단골식당이며, 저지오름, 저지문화예술인마을도 약 3km 거리로 가깝다. 제주도로 떠나는 봄여행을 계획하고 있다면 제주 최대 규모의 새별오름 들불축제도 구경하고, 제주도에서만 맛볼 수 있는 제주음식 별미한상차림 ‘탐라반상’에서 진짜 제주의 맛을 느껴보길 추천한다. 김대일 기자  kdichb@naver.com 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김대일 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
   </si>
 </sst>
 </file>
@@ -437,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +576,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -470,7 +587,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -481,7 +598,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -492,7 +609,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -502,9 +619,6 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
@@ -514,7 +628,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -525,7 +639,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -536,7 +650,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -547,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -558,7 +672,227 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
